--- a/data/experimental/FeSi_s77742.xlsx
+++ b/data/experimental/FeSi_s77742.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjkri\PycharmProjects\pyhy\data\experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62332205-FEB9-44DE-A51A-CD019948EE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1FB3F-C446-457C-B07B-A3C6E0B11E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{7F63B9CF-C652-4E17-9441-712E762B7D2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{7F63B9CF-C652-4E17-9441-712E762B7D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Shot Number</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>VISAR U (km/s)</t>
+  </si>
+  <si>
+    <t>https://www.osti.gov/pages/biblio/1634289</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A68F4-3CC3-4BD2-BFE5-BBE77249D11E}">
   <dimension ref="A1:F1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -16339,10 +16342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79E3363-1F8D-48A1-B959-DFF407837AB4}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16470,6 +16473,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/experimental/FeSi_s77742.xlsx
+++ b/data/experimental/FeSi_s77742.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjkri\PycharmProjects\pyhy\data\experimental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1FB3F-C446-457C-B07B-A3C6E0B11E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79811F-373D-466E-9FC6-91178B9423CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{7F63B9CF-C652-4E17-9441-712E762B7D2A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7F63B9CF-C652-4E17-9441-712E762B7D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7A68F4-3CC3-4BD2-BFE5-BBE77249D11E}">
   <dimension ref="A1:F1102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,10 +545,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-2.9655537999999999</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.3043199999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>-7.3269203999999997</v>
@@ -565,10 +565,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-2.9363655999999998</v>
+        <v>2.4798392999999998E-2</v>
       </c>
       <c r="B3">
-        <v>5.56991E-3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>-7.2837870000000002</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-2.9071769999999999</v>
+        <v>5.2983283999999999E-2</v>
       </c>
       <c r="B4">
-        <v>-6.0303900000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-7.2406540000000001</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-2.8779887999999998</v>
+        <v>8.1168174999999995E-2</v>
       </c>
       <c r="B5">
-        <v>3.7666959999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-7.1975199999999999</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-2.8488001999999999</v>
+        <v>0.10935307</v>
       </c>
       <c r="B6">
-        <v>1.1194374999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-7.1543866999999999</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-2.8196119999999998</v>
+        <v>0.13753842999999999</v>
       </c>
       <c r="B7">
-        <v>-1.1800990000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-7.1112533999999998</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-2.7904233999999999</v>
+        <v>0.16572332000000001</v>
       </c>
       <c r="B8">
-        <v>-8.9438999999999994E-3</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-7.0681200000000004</v>
@@ -685,10 +685,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-2.7612351999999998</v>
+        <v>0.19390821</v>
       </c>
       <c r="B9">
-        <v>-1.2696880000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>-7.0249870000000003</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-2.7320465999999999</v>
+        <v>0.22209311000000001</v>
       </c>
       <c r="B10">
-        <v>5.9392480000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-6.9818530000000001</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-2.7028584000000002</v>
+        <v>0.25010632999999999</v>
       </c>
       <c r="B11">
-        <v>2.6788205999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>-6.9387197</v>
@@ -745,10 +745,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>-2.6736697999999999</v>
+        <v>0.27811955999999999</v>
       </c>
       <c r="B12">
-        <v>-3.8861400000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>-6.8955864</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-2.6444817</v>
+        <v>0.30613278999999999</v>
       </c>
       <c r="B13">
-        <v>1.8989720000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>-6.8524529999999997</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-2.6152929999999999</v>
+        <v>0.33414601999999999</v>
       </c>
       <c r="B14">
-        <v>3.6042497999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>-6.8093199999999996</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>-2.5861049</v>
+        <v>0.36215924999999999</v>
       </c>
       <c r="B15">
-        <v>-8.6251799999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>-6.7661864999999999</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-2.5569161999999999</v>
+        <v>0.39017247999999999</v>
       </c>
       <c r="B16">
-        <v>-3.5345670000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>-6.7230527000000002</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-2.5277281</v>
+        <v>0.41818619000000001</v>
       </c>
       <c r="B17">
-        <v>-1.6099929999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>-6.6799194000000002</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>-2.4985393999999999</v>
+        <v>0.44619942000000001</v>
       </c>
       <c r="B18">
-        <v>1.7238119999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>-6.6367859999999999</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>-2.4693513</v>
+        <v>0.47421265000000001</v>
       </c>
       <c r="B19">
-        <v>-2.912702E-2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>-6.5936529999999998</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>-2.4401627000000001</v>
+        <v>0.50222588000000001</v>
       </c>
       <c r="B20">
-        <v>2.3633154E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>-6.5505195000000001</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>-2.4109745</v>
+        <v>0.53023911000000001</v>
       </c>
       <c r="B21">
-        <v>4.1753719000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>-6.5073857000000004</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>-2.3817859000000001</v>
+        <v>0.55825232999999996</v>
       </c>
       <c r="B22">
-        <v>3.8140487000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>-6.4642524000000003</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>-2.3525977</v>
+        <v>0.58626555999999996</v>
       </c>
       <c r="B23">
-        <v>4.2589589999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>-6.421119</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>-2.3234091000000001</v>
+        <v>0.61427878999999996</v>
       </c>
       <c r="B24">
-        <v>4.8527400000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>-6.3779859999999999</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>-2.2942209</v>
+        <v>0.64229201999999996</v>
       </c>
       <c r="B25">
-        <v>-1.6421080000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>-6.3348525000000002</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>-2.2650323000000001</v>
+        <v>0.67030524999999996</v>
       </c>
       <c r="B26">
-        <v>-4.1604820000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>-6.2917187999999999</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>-2.2358441</v>
+        <v>0.69831847999999996</v>
       </c>
       <c r="B27">
-        <v>-1.493423E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-6.2485853999999996</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>-2.2066555000000001</v>
+        <v>0.72633170999999996</v>
       </c>
       <c r="B28">
-        <v>8.0056229999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>-6.2054520000000002</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>-2.1774673</v>
+        <v>0.75388144999999995</v>
       </c>
       <c r="B29">
-        <v>-5.6190700000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>-6.1623190000000001</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>-2.1482787000000001</v>
+        <v>0.78143119999999999</v>
       </c>
       <c r="B30">
-        <v>-6.2211999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>-6.1191855000000004</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>-2.1190905999999998</v>
+        <v>0.80898093999999998</v>
       </c>
       <c r="B31">
-        <v>-3.6132299999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>-6.0760519999999998</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>-2.0899019000000001</v>
+        <v>0.83653069000000002</v>
       </c>
       <c r="B32">
-        <v>-2.3121900000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>-6.0329185000000001</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>-2.0607137999999998</v>
+        <v>0.86408043000000001</v>
       </c>
       <c r="B33">
-        <v>9.3260930000000006E-3</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>-5.9897850000000004</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>-2.0315251000000001</v>
+        <v>0.89163064999999997</v>
       </c>
       <c r="B34">
-        <v>2.6767049000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>-5.9466520000000003</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>-2.0023369999999998</v>
+        <v>0.91918038999999996</v>
       </c>
       <c r="B35">
-        <v>-8.0385500000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>-5.9035185999999999</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>-1.9731483000000001</v>
+        <v>0.94673014</v>
       </c>
       <c r="B36">
-        <v>-3.5161699999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>-5.860385</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>-1.9439602</v>
+        <v>0.97427987999999999</v>
       </c>
       <c r="B37">
-        <v>2.2288239999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>-5.8172515000000002</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>-1.9147715999999999</v>
+        <v>1.0018296</v>
       </c>
       <c r="B38">
-        <v>-6.9068100000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>-5.7741179999999996</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>-1.8855834</v>
+        <v>1.0293798000000001</v>
       </c>
       <c r="B39">
-        <v>6.2010310000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>-5.7309850000000004</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>-1.8563947999999999</v>
+        <v>1.0569295999999999</v>
       </c>
       <c r="B40">
-        <v>-8.2862100000000005E-3</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>-5.6878516000000001</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>-1.8272066</v>
+        <v>1.0844792999999999</v>
       </c>
       <c r="B41">
-        <v>-4.1054400000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>-5.6447180000000001</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>-1.7980179999999999</v>
+        <v>1.1120291</v>
       </c>
       <c r="B42">
-        <v>-2.210956E-2</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>-5.6015845000000004</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>-1.7694620999999999</v>
+        <v>1.1395788</v>
       </c>
       <c r="B43">
-        <v>-9.6784200000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>-5.5584509999999998</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>-1.7409067</v>
+        <v>1.1671286000000001</v>
       </c>
       <c r="B44">
-        <v>-3.9961759999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>-5.5153179999999997</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>-1.7123508000000001</v>
+        <v>1.1946783000000001</v>
       </c>
       <c r="B45">
-        <v>-9.2458699999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>-5.4721846000000003</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>-1.6837955</v>
+        <v>1.2222280999999999</v>
       </c>
       <c r="B46">
-        <v>-1.9160900000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>-5.4290510000000003</v>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>-1.6552396</v>
+        <v>1.2495289000000001</v>
       </c>
       <c r="B47">
-        <v>-1.265675E-2</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>-5.3859174999999997</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>-1.6266841999999999</v>
+        <v>1.2768297</v>
       </c>
       <c r="B48">
-        <v>3.1959940000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>-5.342784</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>-1.5981282999999999</v>
+        <v>1.3041305999999999</v>
       </c>
       <c r="B49">
-        <v>-8.7843000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>-5.2996509999999999</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>-1.5695729</v>
+        <v>1.3314303999999999</v>
       </c>
       <c r="B50">
-        <v>-3.2309499999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>-5.2565175999999996</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>-1.5410170999999999</v>
+        <v>1.3587313000000001</v>
       </c>
       <c r="B51">
-        <v>3.1131583000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>-5.2133839999999996</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>-1.5124617</v>
+        <v>1.3860321</v>
       </c>
       <c r="B52">
-        <v>1.6556715E-2</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>-5.1702504999999999</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>-1.4839058000000001</v>
+        <v>1.4133328999999999</v>
       </c>
       <c r="B53">
-        <v>-9.78768E-3</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>-5.1271170000000001</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>-1.4553503999999999</v>
+        <v>1.4406338000000001</v>
       </c>
       <c r="B54">
-        <v>-5.4384500000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>-5.0839840000000001</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>-1.4267945</v>
+        <v>1.4679346</v>
       </c>
       <c r="B55">
-        <v>9.9907139999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>-5.0408505999999997</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>-1.3982391000000001</v>
+        <v>1.4952345</v>
       </c>
       <c r="B56">
-        <v>-3.3565869999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>-4.9977169999999997</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>-1.3696832999999999</v>
+        <v>1.5225352999999999</v>
       </c>
       <c r="B57">
-        <v>6.5717100000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>-4.9545839999999997</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>-1.3411279</v>
+        <v>1.5498362000000001</v>
       </c>
       <c r="B58">
-        <v>-3.5358799999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>-4.9114500000000003</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>-1.3125720000000001</v>
+        <v>1.577137</v>
       </c>
       <c r="B59">
-        <v>-8.2478499999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>-4.8683170000000002</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>-1.2840166</v>
+        <v>1.6044377999999999</v>
       </c>
       <c r="B60">
-        <v>5.9021513999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>-4.8251835999999999</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>-1.2553867999999999</v>
+        <v>1.6317387000000001</v>
       </c>
       <c r="B61">
-        <v>-1.7471520000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>-4.7820499999999999</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>-1.2267570000000001</v>
+        <v>1.6590385000000001</v>
       </c>
       <c r="B62">
-        <v>-4.3372000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>-4.7389169999999998</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>-1.1981268</v>
+        <v>1.6863394</v>
       </c>
       <c r="B63">
-        <v>2.3801191999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>-4.6957829999999996</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>-1.169497</v>
+        <v>1.7136401999999999</v>
       </c>
       <c r="B64">
-        <v>2.0150708999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>-4.6526500000000004</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>-1.1408672</v>
+        <v>1.7409410000000001</v>
       </c>
       <c r="B65">
-        <v>2.4908203E-2</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>-4.6095166000000001</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>-1.1122375</v>
+        <v>1.7690125000000001</v>
       </c>
       <c r="B66">
-        <v>2.7554058999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>-4.5663830000000001</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>-1.0836077</v>
+        <v>1.7970847999999999</v>
       </c>
       <c r="B67">
-        <v>4.2622853000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>-4.52325</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>-1.0549774000000001</v>
+        <v>1.8251561999999999</v>
       </c>
       <c r="B68">
-        <v>9.0306080000000007E-3</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>-4.4801159999999998</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>-1.0263476</v>
+        <v>1.8532276000000001</v>
       </c>
       <c r="B69">
-        <v>9.6831700000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>-4.4369829999999997</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>-0.99771785999999996</v>
+        <v>1.8813</v>
       </c>
       <c r="B70">
-        <v>1.647681E-3</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>-4.3938496000000002</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>-0.96908808000000002</v>
+        <v>1.9093713999999999</v>
       </c>
       <c r="B71">
-        <v>-3.39046E-2</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>-4.3507160000000002</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>-0.94045829999999997</v>
+        <v>1.9374427999999999</v>
       </c>
       <c r="B72">
-        <v>-3.2750830000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>-4.3075830000000002</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>-0.91182803999999995</v>
+        <v>1.9655151</v>
       </c>
       <c r="B73">
-        <v>2.6528105999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>-4.2644489999999999</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>-0.88319826000000001</v>
+        <v>1.9935864999999999</v>
       </c>
       <c r="B74">
-        <v>7.3645899999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>-4.2213159999999998</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>-0.85456847999999996</v>
+        <v>2.0216588999999998</v>
       </c>
       <c r="B75">
-        <v>-5.8759399999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>-4.1781826000000004</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>-0.82593870000000003</v>
+        <v>2.0497302999999998</v>
       </c>
       <c r="B76">
-        <v>7.6737699999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>-4.1350490000000004</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>-0.79730844000000001</v>
+        <v>2.0778017000000002</v>
       </c>
       <c r="B77">
-        <v>7.6740259999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>-4.0919157999999998</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>-0.76885985999999995</v>
+        <v>2.1058740999999999</v>
       </c>
       <c r="B78">
-        <v>1.6088597999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>-4.0487821999999998</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>-0.74041128</v>
-      </c>
-      <c r="B79" s="3">
-        <v>7.8700000000000002E-5</v>
+        <v>2.1339454999999998</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
       </c>
       <c r="C79">
         <v>-4.005649</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>-0.71196318000000003</v>
+        <v>2.1620168999999998</v>
       </c>
       <c r="B80">
-        <v>-1.8526150000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>-3.9625156000000001</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>-0.68351459999999997</v>
+        <v>2.1900892000000001</v>
       </c>
       <c r="B81">
-        <v>3.2945477000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>-3.9193820000000001</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>-0.65506600999999998</v>
+        <v>2.2181606</v>
       </c>
       <c r="B82">
-        <v>-1.2683200000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>-3.8762487999999999</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>-0.62661743000000003</v>
+        <v>2.246232</v>
       </c>
       <c r="B83">
-        <v>-6.6620000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>-3.8331151999999999</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>-0.59816933000000005</v>
+        <v>2.2750615999999999</v>
       </c>
       <c r="B84">
-        <v>-5.2373999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>-3.7899820000000002</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>-0.56972075</v>
+        <v>2.3038911999999998</v>
       </c>
       <c r="B85">
-        <v>-1.100713E-2</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>-3.7468485999999999</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>-0.54127216</v>
+        <v>2.3327208000000001</v>
       </c>
       <c r="B86">
-        <v>1.0743361999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>-3.7037149999999999</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>-0.51282357999999995</v>
+        <v>2.3615493999999999</v>
       </c>
       <c r="B87">
-        <v>-2.8859340000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>-3.6605818000000001</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>-0.48437548000000002</v>
+        <v>2.3903789999999998</v>
       </c>
       <c r="B88">
-        <v>-1.339072E-2</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>-3.6174482000000001</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>-0.45592690000000002</v>
+        <v>2.4192084999999999</v>
       </c>
       <c r="B89">
-        <v>-4.4276129999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>-3.5743149999999999</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>-0.42747830999999997</v>
+        <v>2.4480381000000002</v>
       </c>
       <c r="B90">
-        <v>-3.3445589999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>-3.5311816</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>-0.39902973000000003</v>
+        <v>2.4768677000000001</v>
       </c>
       <c r="B91">
-        <v>-2.6620600000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>-3.488048</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>-0.37058163</v>
+        <v>2.5056973</v>
       </c>
       <c r="B92">
-        <v>2.22838E-4</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>-3.4449147999999998</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>-0.34213304999999999</v>
+        <v>2.5345268000000001</v>
       </c>
       <c r="B93">
-        <v>-1.92892E-3</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>-3.4017811999999998</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>-0.31368446</v>
+        <v>2.5633553999999998</v>
       </c>
       <c r="B94">
-        <v>-6.7054799999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>-3.3586480000000001</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>-0.28523588</v>
+        <v>2.5921850000000002</v>
       </c>
       <c r="B95">
-        <v>-2.3207200000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>-3.3155146000000002</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>-0.25705098999999998</v>
+        <v>2.6210146000000001</v>
       </c>
       <c r="B96">
-        <v>-3.5420479999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>-3.2723810000000002</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>-0.22886609999999999</v>
+        <v>2.6498442</v>
       </c>
       <c r="B97">
-        <v>9.7126710000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>-3.2292475999999999</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>-0.20068121</v>
+        <v>2.6786737</v>
       </c>
       <c r="B98">
-        <v>1.9026805000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>-3.1861142999999998</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>-0.17249632000000001</v>
+        <v>2.7075032999999999</v>
       </c>
       <c r="B99">
-        <v>2.9105550000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>-3.1429809999999998</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>-0.14431094999999999</v>
+        <v>2.7363328999999998</v>
       </c>
       <c r="B100">
-        <v>2.8855964000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>-3.0998477000000002</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>-0.11612606</v>
+        <v>2.7651615</v>
       </c>
       <c r="B101">
-        <v>1.2737974000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>-3.0567144000000002</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>-8.7941169999999999E-2</v>
+        <v>2.7936687</v>
       </c>
       <c r="B102">
-        <v>-1.4506420000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>-3.0135806000000001</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>-5.9756280000000002E-2</v>
+        <v>2.8221750000000001</v>
       </c>
       <c r="B103">
-        <v>3.2100229000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>-2.9704473</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>-3.1571389999999998E-2</v>
+        <v>2.8506822999999999</v>
       </c>
       <c r="B104">
-        <v>-1.3494100000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>-2.927314</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>-3.3865000000000002E-3</v>
+        <v>2.8791894999999998</v>
       </c>
       <c r="B105">
-        <v>1.5299755E-2</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>-2.8841806999999999</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>2.4798392999999998E-2</v>
+        <v>2.9076966999999998</v>
       </c>
       <c r="B106">
-        <v>2.4517015E-2</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>-2.8410473999999999</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>5.2983283999999999E-2</v>
+        <v>2.9362029999999999</v>
       </c>
       <c r="B107">
-        <v>1.6391077E-2</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>-2.7979135999999998</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>8.1168174999999995E-2</v>
+        <v>2.9647101999999999</v>
       </c>
       <c r="B108">
-        <v>-2.2767E-3</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>-2.7547803000000002</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>0.10935307</v>
+        <v>2.9932175000000001</v>
       </c>
       <c r="B109">
-        <v>-2.829371E-2</v>
+        <v>0</v>
       </c>
       <c r="C109">
         <v>-2.7116470000000001</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>0.13753842999999999</v>
+        <v>3.0217236999999999</v>
       </c>
       <c r="B110">
-        <v>-1.297415E-2</v>
+        <v>6.5481755000000003E-2</v>
       </c>
       <c r="C110">
         <v>-2.6685137000000001</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>0.16572332000000001</v>
+        <v>3.0502310000000001</v>
       </c>
       <c r="B111">
-        <v>8.3793799999999999E-4</v>
+        <v>7.4424246999999999E-2</v>
       </c>
       <c r="C111">
         <v>-2.6253804000000001</v>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>0.19390821</v>
+        <v>3.0787382000000001</v>
       </c>
       <c r="B112">
-        <v>3.2062229999999998E-3</v>
+        <v>4.7518507000000001E-2</v>
       </c>
       <c r="C112">
         <v>-2.5822470000000002</v>
@@ -2765,10 +2765,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>0.22209311000000001</v>
+        <v>3.1072454</v>
       </c>
       <c r="B113">
-        <v>8.6863670000000004E-3</v>
+        <v>6.6356861000000003E-2</v>
       </c>
       <c r="C113">
         <v>-2.5391132999999999</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>0.25010632999999999</v>
+        <v>3.1357517000000001</v>
       </c>
       <c r="B114">
-        <v>2.1605449999999998E-3</v>
+        <v>5.1214112999999999E-2</v>
       </c>
       <c r="C114">
         <v>-2.4959799999999999</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>0.27811955999999999</v>
+        <v>3.1642589999999999</v>
       </c>
       <c r="B115">
-        <v>-3.1544030000000001E-2</v>
+        <v>8.3810314999999996E-2</v>
       </c>
       <c r="C115">
         <v>-2.4528466999999998</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>0.30613278999999999</v>
+        <v>3.1927661999999999</v>
       </c>
       <c r="B116">
-        <v>-3.3241099999999999E-3</v>
+        <v>5.2318890999999999E-2</v>
       </c>
       <c r="C116">
         <v>-2.4097133999999998</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>0.33414601999999999</v>
+        <v>3.2212733999999998</v>
       </c>
       <c r="B117">
-        <v>1.518157E-3</v>
+        <v>7.6504522000000005E-2</v>
       </c>
       <c r="C117">
         <v>-2.3665799999999999</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>0.36215924999999999</v>
+        <v>3.2497796999999999</v>
       </c>
       <c r="B118">
-        <v>3.4723829999999999E-3</v>
+        <v>0.104945793</v>
       </c>
       <c r="C118">
         <v>-2.3234463000000001</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>0.39017247999999999</v>
+        <v>3.2787351999999998</v>
       </c>
       <c r="B119">
-        <v>2.9966960000000001E-3</v>
+        <v>0.101675497</v>
       </c>
       <c r="C119">
         <v>-2.280313</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>0.41818619000000001</v>
+        <v>3.3076905999999999</v>
       </c>
       <c r="B120">
-        <v>-1.362236E-2</v>
+        <v>0.13310358799999999</v>
       </c>
       <c r="C120">
         <v>-2.2371797</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>0.44619942000000001</v>
+        <v>3.3366451000000001</v>
       </c>
       <c r="B121">
-        <v>-3.3082199999999999E-2</v>
+        <v>0.192464211</v>
       </c>
       <c r="C121">
         <v>-2.1940464</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>0.47421265000000001</v>
+        <v>3.3656006000000001</v>
       </c>
       <c r="B122">
-        <v>-1.152447E-2</v>
+        <v>0.27488764999999998</v>
       </c>
       <c r="C122">
         <v>-2.1509130000000001</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>0.50222588000000001</v>
+        <v>3.3945560000000001</v>
       </c>
       <c r="B123">
-        <v>2.7779900000000001E-4</v>
+        <v>0.32337674799999999</v>
       </c>
       <c r="C123">
         <v>-2.1077792999999998</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>0.53023911000000001</v>
+        <v>3.4235115</v>
       </c>
       <c r="B124">
-        <v>-1.779739E-2</v>
+        <v>0.42132806099999998</v>
       </c>
       <c r="C124">
         <v>-2.0646460000000002</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>0.55825232999999996</v>
+        <v>3.452467</v>
       </c>
       <c r="B125">
-        <v>-5.19398E-3</v>
+        <v>0.56824903299999996</v>
       </c>
       <c r="C125">
         <v>-2.0215127000000002</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>0.58626555999999996</v>
+        <v>3.4814224</v>
       </c>
       <c r="B126">
-        <v>-3.3004200000000001E-3</v>
+        <v>0.71928457300000004</v>
       </c>
       <c r="C126">
         <v>-1.9783793999999999</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>0.61427878999999996</v>
+        <v>3.5103768999999998</v>
       </c>
       <c r="B127">
-        <v>1.0075624E-2</v>
+        <v>0.78441828300000005</v>
       </c>
       <c r="C127">
         <v>-1.9352461000000001</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>0.64229201999999996</v>
+        <v>3.5393324000000002</v>
       </c>
       <c r="B128">
-        <v>9.1418939999999994E-3</v>
+        <v>0.90504712600000004</v>
       </c>
       <c r="C128">
         <v>-1.8921123</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>0.67030524999999996</v>
+        <v>3.5682877999999998</v>
       </c>
       <c r="B129">
-        <v>4.7584111999999998E-2</v>
+        <v>0.91460830800000004</v>
       </c>
       <c r="C129">
         <v>-1.8489789999999999</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>0.69831847999999996</v>
+        <v>3.5972433000000001</v>
       </c>
       <c r="B130">
-        <v>1.2155312E-2</v>
+        <v>0.94418782499999998</v>
       </c>
       <c r="C130">
         <v>-1.8058457000000001</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>0.72633170999999996</v>
+        <v>3.6261988000000001</v>
       </c>
       <c r="B131">
-        <v>3.3786110000000001E-3</v>
+        <v>1.000601461</v>
       </c>
       <c r="C131">
         <v>-1.7627124000000001</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>0.75388144999999995</v>
+        <v>3.6551532999999998</v>
       </c>
       <c r="B132">
-        <v>4.1880669000000002E-2</v>
+        <v>1.054740531</v>
       </c>
       <c r="C132">
         <v>-1.7195791</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>0.78143119999999999</v>
+        <v>3.6841086999999999</v>
       </c>
       <c r="B133">
-        <v>1.5058896E-2</v>
+        <v>1.05855707</v>
       </c>
       <c r="C133">
         <v>-1.6764452999999999</v>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>0.80898093999999998</v>
+        <v>3.7130641999999998</v>
       </c>
       <c r="B134">
-        <v>2.3933963999999999E-2</v>
+        <v>1.0616095320000001</v>
       </c>
       <c r="C134">
         <v>-1.6333120000000001</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>0.83653069000000002</v>
+        <v>3.7420197000000002</v>
       </c>
       <c r="B135">
-        <v>2.8541977E-2</v>
+        <v>1.0948066910000001</v>
       </c>
       <c r="C135">
         <v>-1.5901787000000001</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>0.86408043000000001</v>
+        <v>3.7709750999999998</v>
       </c>
       <c r="B136">
-        <v>1.3450264999999999E-2</v>
+        <v>1.072672302</v>
       </c>
       <c r="C136">
         <v>-1.5470454</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>0.89163064999999997</v>
+        <v>3.8001193999999998</v>
       </c>
       <c r="B137">
-        <v>1.0364508E-2</v>
+        <v>1.0274570190000001</v>
       </c>
       <c r="C137">
         <v>-1.5039121</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>0.91918038999999996</v>
+        <v>3.8292646000000001</v>
       </c>
       <c r="B138">
-        <v>-1.23445E-3</v>
+        <v>1.0926193259999999</v>
       </c>
       <c r="C138">
         <v>-1.4607783000000001</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>0.94673014</v>
+        <v>3.8584089000000001</v>
       </c>
       <c r="B139">
-        <v>9.3563320000000002E-3</v>
+        <v>1.071160976</v>
       </c>
       <c r="C139">
         <v>-1.417645</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>0.97427987999999999</v>
+        <v>3.8875532000000002</v>
       </c>
       <c r="B140">
-        <v>-2.3091399999999999E-3</v>
+        <v>1.0469095420000001</v>
       </c>
       <c r="C140">
         <v>-1.3745117</v>
@@ -3325,10 +3325,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>1.0018296</v>
+        <v>3.9166984999999999</v>
       </c>
       <c r="B141">
-        <v>-7.71202E-3</v>
+        <v>1.0464664290000001</v>
       </c>
       <c r="C141">
         <v>-1.3313784</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>1.0293798000000001</v>
+        <v>3.9458427</v>
       </c>
       <c r="B142">
-        <v>4.3649699999999999E-4</v>
+        <v>1.089835978</v>
       </c>
       <c r="C142">
         <v>-1.2882450999999999</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>1.0569295999999999</v>
+        <v>3.9749880000000002</v>
       </c>
       <c r="B143">
-        <v>-1.045713E-2</v>
+        <v>1.115657906</v>
       </c>
       <c r="C143">
         <v>-1.2451113</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>1.0844792999999999</v>
+        <v>4.0041323000000002</v>
       </c>
       <c r="B144">
-        <v>-1.87279E-3</v>
+        <v>1.137140431</v>
       </c>
       <c r="C144">
         <v>-1.201978</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>1.1120291</v>
+        <v>4.0332765999999998</v>
       </c>
       <c r="B145">
-        <v>-1.505458E-2</v>
+        <v>1.1035581400000001</v>
       </c>
       <c r="C145">
         <v>-1.1588446999999999</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>1.1395788</v>
+        <v>4.0624218000000001</v>
       </c>
       <c r="B146">
-        <v>1.5473779E-2</v>
+        <v>1.209183691</v>
       </c>
       <c r="C146">
         <v>-1.1157113999999999</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>1.1671286000000001</v>
-      </c>
-      <c r="B147" s="3">
-        <v>7.3999999999999996E-5</v>
+        <v>4.0915660999999997</v>
+      </c>
+      <c r="B147">
+        <v>1.2850370600000001</v>
       </c>
       <c r="C147">
         <v>-1.0725781000000001</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>1.1946783000000001</v>
+        <v>4.1207104000000001</v>
       </c>
       <c r="B148">
-        <v>-2.2466299999999999E-3</v>
+        <v>1.320758704</v>
       </c>
       <c r="C148">
         <v>-1.0294443</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>1.2222280999999999</v>
+        <v>4.1498556000000004</v>
       </c>
       <c r="B149">
-        <v>-4.9063800000000001E-3</v>
+        <v>1.4732025099999999</v>
       </c>
       <c r="C149">
         <v>-0.98631104000000003</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>1.2495289000000001</v>
+        <v>4.1789999</v>
       </c>
       <c r="B150">
-        <v>5.1045980000000001E-3</v>
+        <v>1.5673602390000001</v>
       </c>
       <c r="C150">
         <v>-0.94317773000000005</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>1.2768297</v>
+        <v>4.2081441999999996</v>
       </c>
       <c r="B151">
-        <v>1.011315E-3</v>
+        <v>1.6802802670000001</v>
       </c>
       <c r="C151">
         <v>-0.90004443000000001</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>1.3041305999999999</v>
+        <v>4.2372893999999999</v>
       </c>
       <c r="B152">
-        <v>-1.70563E-2</v>
+        <v>1.763626299</v>
       </c>
       <c r="C152">
         <v>-0.85691112999999997</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>1.3314303999999999</v>
+        <v>4.2664337000000003</v>
       </c>
       <c r="B153">
-        <v>-2.764666E-2</v>
+        <v>1.82555577</v>
       </c>
       <c r="C153">
         <v>-0.81377783000000004</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>1.3587313000000001</v>
+        <v>4.2964086999999997</v>
       </c>
       <c r="B154">
-        <v>-2.258346E-2</v>
+        <v>1.861411838</v>
       </c>
       <c r="C154">
         <v>-0.77064403999999997</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>1.3860321</v>
+        <v>4.3263835999999998</v>
       </c>
       <c r="B155">
-        <v>-1.6511850000000002E-2</v>
+        <v>1.8364251810000001</v>
       </c>
       <c r="C155">
         <v>-0.72751074000000004</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>1.4133328999999999</v>
+        <v>4.3563584999999998</v>
       </c>
       <c r="B156">
-        <v>-2.7611759999999999E-2</v>
+        <v>1.8299034670000001</v>
       </c>
       <c r="C156">
         <v>-0.68437744</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>1.4406338000000001</v>
+        <v>4.3863335000000001</v>
       </c>
       <c r="B157">
-        <v>5.4813379999999997E-3</v>
+        <v>1.816904809</v>
       </c>
       <c r="C157">
         <v>-0.64124413999999996</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>1.4679346</v>
+        <v>4.4163074</v>
       </c>
       <c r="B158">
-        <v>7.3203210000000003E-3</v>
+        <v>1.8812747270000001</v>
       </c>
       <c r="C158">
         <v>-0.59811084000000003</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>1.4952345</v>
+        <v>4.4462824000000003</v>
       </c>
       <c r="B159">
-        <v>-1.57183E-3</v>
+        <v>1.894588749</v>
       </c>
       <c r="C159">
         <v>-0.55497704999999997</v>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>1.5225352999999999</v>
+        <v>4.4762573000000003</v>
       </c>
       <c r="B160">
-        <v>1.0723295000000001E-2</v>
+        <v>1.87263142</v>
       </c>
       <c r="C160">
         <v>-0.51184375000000004</v>
@@ -3725,10 +3725,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>1.5498362000000001</v>
+        <v>4.5062322999999997</v>
       </c>
       <c r="B161">
-        <v>-5.9044000000000002E-4</v>
+        <v>1.883973914</v>
       </c>
       <c r="C161">
         <v>-0.46871045</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>1.577137</v>
+        <v>4.5362071999999998</v>
       </c>
       <c r="B162">
-        <v>2.415847E-3</v>
+        <v>1.933773261</v>
       </c>
       <c r="C162">
         <v>-0.42557715000000002</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>1.6044377999999999</v>
+        <v>4.5661820999999998</v>
       </c>
       <c r="B163">
-        <v>7.7929849999999997E-3</v>
+        <v>1.961763572</v>
       </c>
       <c r="C163">
         <v>-0.38244384999999997</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>1.6317387000000001</v>
+        <v>4.5961571000000001</v>
       </c>
       <c r="B164">
-        <v>4.6610389999999996E-3</v>
+        <v>1.9925790489999999</v>
       </c>
       <c r="C164">
         <v>-0.33931006000000002</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>1.6590385000000001</v>
+        <v>4.6261320000000001</v>
       </c>
       <c r="B165">
-        <v>2.2324514E-2</v>
+        <v>2.0077412969999999</v>
       </c>
       <c r="C165">
         <v>-0.29617675999999998</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>1.6863394</v>
+        <v>4.6561060000000003</v>
       </c>
       <c r="B166">
-        <v>6.7354040000000004E-3</v>
+        <v>2.0234843470000001</v>
       </c>
       <c r="C166">
         <v>-0.25304346</v>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>1.7136401999999999</v>
+        <v>4.6860809000000003</v>
       </c>
       <c r="B167">
-        <v>2.2807137000000002E-2</v>
+        <v>2.0815702310000002</v>
       </c>
       <c r="C167">
         <v>-0.20991016000000001</v>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>1.7409410000000001</v>
+        <v>4.7160558999999997</v>
       </c>
       <c r="B168">
-        <v>3.6178271999999997E-2</v>
+        <v>2.1193361400000001</v>
       </c>
       <c r="C168">
         <v>-0.16677686</v>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>1.7690125000000001</v>
+        <v>4.7460307999999998</v>
       </c>
       <c r="B169">
-        <v>9.7356260000000007E-3</v>
+        <v>2.1312311629999998</v>
       </c>
       <c r="C169">
         <v>-0.12364306999999999</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>1.7970847999999999</v>
+        <v>4.7760056999999998</v>
       </c>
       <c r="B170">
-        <v>-8.6990100000000001E-3</v>
+        <v>2.1299869359999999</v>
       </c>
       <c r="C170">
         <v>-8.0509769999999994E-2</v>
@@ -3925,10 +3925,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>1.8251561999999999</v>
+        <v>4.8059807000000001</v>
       </c>
       <c r="B171">
-        <v>7.9290420000000007E-3</v>
+        <v>2.1173066550000001</v>
       </c>
       <c r="C171">
         <v>-3.7376470000000002E-2</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>1.8532276000000001</v>
+        <v>4.8358574000000001</v>
       </c>
       <c r="B172">
-        <v>5.0803556999999999E-2</v>
+        <v>2.1175646079999999</v>
       </c>
       <c r="C172">
         <v>5.75684E-3</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>1.8813</v>
+        <v>4.8657330999999999</v>
       </c>
       <c r="B173">
-        <v>4.6781055000000002E-2</v>
+        <v>2.1490037929999999</v>
       </c>
       <c r="C173">
         <v>4.8890139999999999E-2</v>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>1.9093713999999999</v>
+        <v>4.8956099000000002</v>
       </c>
       <c r="B174">
-        <v>4.3238054999999997E-2</v>
+        <v>2.1569434869999999</v>
       </c>
       <c r="C174">
         <v>9.2023930000000004E-2</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>1.9374427999999999</v>
+        <v>4.9254866000000002</v>
       </c>
       <c r="B175">
-        <v>3.3890862000000001E-2</v>
+        <v>2.1654793400000001</v>
       </c>
       <c r="C175">
         <v>0.13515722999999999</v>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1.9655151</v>
+        <v>4.9553623</v>
       </c>
       <c r="B176">
-        <v>4.4150600999999998E-2</v>
+        <v>2.2001936710000001</v>
       </c>
       <c r="C176">
         <v>0.17829053</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1.9935864999999999</v>
+        <v>4.985239</v>
       </c>
       <c r="B177">
-        <v>-6.4125500000000004E-3</v>
+        <v>2.179315758</v>
       </c>
       <c r="C177">
         <v>0.22142382999999999</v>
@@ -4065,10 +4065,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>2.0216588999999998</v>
+        <v>5.0151157</v>
       </c>
       <c r="B178">
-        <v>4.1439564999999998E-2</v>
+        <v>2.1844772529999998</v>
       </c>
       <c r="C178">
         <v>0.26455712999999997</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>2.0497302999999998</v>
+        <v>5.0449915000000001</v>
       </c>
       <c r="B179">
-        <v>1.9491774999999999E-2</v>
+        <v>2.1867795590000001</v>
       </c>
       <c r="C179">
         <v>0.30769091999999998</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>2.0778017000000002</v>
+        <v>5.0748682000000001</v>
       </c>
       <c r="B180">
-        <v>9.9455440000000006E-3</v>
+        <v>2.175108716</v>
       </c>
       <c r="C180">
         <v>0.35082422000000002</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>2.1058740999999999</v>
+        <v>5.1047449</v>
       </c>
       <c r="B181">
-        <v>2.3060522E-2</v>
+        <v>2.187123003</v>
       </c>
       <c r="C181">
         <v>0.39395752000000001</v>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>2.1339454999999998</v>
+        <v>5.1346207000000001</v>
       </c>
       <c r="B182">
-        <v>4.6047229000000002E-2</v>
+        <v>2.197205925</v>
       </c>
       <c r="C182">
         <v>0.43709081999999999</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>2.1620168999999998</v>
+        <v>5.1644974000000001</v>
       </c>
       <c r="B183">
-        <v>-8.1598499999999997E-3</v>
+        <v>2.218361169</v>
       </c>
       <c r="C183">
         <v>0.48022411999999998</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>2.1900892000000001</v>
+        <v>5.1943741000000001</v>
       </c>
       <c r="B184">
-        <v>-3.0231870000000001E-2</v>
+        <v>2.2656499960000001</v>
       </c>
       <c r="C184">
         <v>0.52335790000000004</v>
@@ -4205,10 +4205,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>2.2181606</v>
+        <v>5.2242508000000001</v>
       </c>
       <c r="B185">
-        <v>-1.2162200000000001E-3</v>
+        <v>2.2706090379999999</v>
       </c>
       <c r="C185">
         <v>0.56649119999999997</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>2.246232</v>
+        <v>5.2541264999999999</v>
       </c>
       <c r="B186">
-        <v>4.5510738000000002E-2</v>
+        <v>2.2564921199999999</v>
       </c>
       <c r="C186">
         <v>0.60962450000000001</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>2.2750615999999999</v>
+        <v>5.2840033000000002</v>
       </c>
       <c r="B187">
-        <v>-8.0644099999999993E-3</v>
+        <v>2.291398949</v>
       </c>
       <c r="C187">
         <v>0.65275780000000005</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>2.3038911999999998</v>
+        <v>5.3138800000000002</v>
       </c>
       <c r="B188">
-        <v>-4.9207420000000002E-2</v>
+        <v>2.3043374000000001</v>
       </c>
       <c r="C188">
         <v>0.69589109999999998</v>
@@ -4285,10 +4285,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>2.3327208000000001</v>
+        <v>5.3443975000000004</v>
       </c>
       <c r="B189">
-        <v>7.6326620000000001E-3</v>
+        <v>2.337549696</v>
       </c>
       <c r="C189">
         <v>0.73902489999999998</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>2.3615493999999999</v>
+        <v>5.3749150999999999</v>
       </c>
       <c r="B190">
-        <v>3.2207989999999999E-3</v>
+        <v>2.3417121270000001</v>
       </c>
       <c r="C190">
         <v>0.78215820000000003</v>
@@ -4325,10 +4325,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>2.3903789999999998</v>
+        <v>5.4054327000000004</v>
       </c>
       <c r="B191">
-        <v>3.5608002999999999E-2</v>
+        <v>2.3509223920000002</v>
       </c>
       <c r="C191">
         <v>0.82529149999999996</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>2.4192084999999999</v>
+        <v>5.4359503</v>
       </c>
       <c r="B192">
-        <v>4.7785174E-2</v>
+        <v>2.3773809159999999</v>
       </c>
       <c r="C192">
         <v>0.86842529999999996</v>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>2.4480381000000002</v>
+        <v>5.4664678999999996</v>
       </c>
       <c r="B193">
-        <v>2.1166448000000001E-2</v>
+        <v>2.4262844870000002</v>
       </c>
       <c r="C193">
         <v>0.91155810000000004</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>2.4768677000000001</v>
+        <v>5.4969853999999998</v>
       </c>
       <c r="B194">
-        <v>1.9232305000000002E-2</v>
+        <v>2.497428067</v>
       </c>
       <c r="C194">
         <v>0.95469190000000004</v>
@@ -4405,10 +4405,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>2.5056973</v>
+        <v>5.5275030000000003</v>
       </c>
       <c r="B195">
-        <v>4.2393164999999997E-2</v>
+        <v>2.5808819810000001</v>
       </c>
       <c r="C195">
         <v>0.99782470000000001</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>2.5345268000000001</v>
+        <v>5.5580205999999999</v>
       </c>
       <c r="B196">
-        <v>2.7542408000000001E-2</v>
+        <v>2.7548187130000001</v>
       </c>
       <c r="C196">
         <v>1.0409584999999999</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>2.5633553999999998</v>
+        <v>5.5885382000000003</v>
       </c>
       <c r="B197">
-        <v>2.9065982000000001E-2</v>
+        <v>3.0488920589999999</v>
       </c>
       <c r="C197">
         <v>1.0840923</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>2.5921850000000002</v>
+        <v>5.6190556999999997</v>
       </c>
       <c r="B198">
-        <v>7.5818214999999994E-2</v>
+        <v>3.255913783</v>
       </c>
       <c r="C198">
         <v>1.1272251</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>2.6210146000000001</v>
+        <v>5.6495733000000001</v>
       </c>
       <c r="B199">
-        <v>4.9784127999999997E-2</v>
+        <v>3.3907929289999998</v>
       </c>
       <c r="C199">
         <v>1.1703589000000001</v>
@@ -4505,10 +4505,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>2.6498442</v>
+        <v>5.6800908999999997</v>
       </c>
       <c r="B200">
-        <v>6.6398334000000003E-2</v>
+        <v>3.6625272199999999</v>
       </c>
       <c r="C200">
         <v>1.2134917000000001</v>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>2.6786737</v>
+        <v>5.7106075000000001</v>
       </c>
       <c r="B201">
-        <v>6.2939521999999998E-2</v>
+        <v>4.0449230360000001</v>
       </c>
       <c r="C201">
         <v>1.2566255</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>2.7075032999999999</v>
+        <v>5.7411250999999996</v>
       </c>
       <c r="B202">
-        <v>6.9114521999999998E-2</v>
+        <v>4.2034068390000003</v>
       </c>
       <c r="C202">
         <v>1.2997593000000001</v>
@@ -4565,10 +4565,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>2.7363328999999998</v>
+        <v>5.7716427000000001</v>
       </c>
       <c r="B203">
-        <v>5.7993550999999997E-2</v>
+        <v>4.3216029840000001</v>
       </c>
       <c r="C203">
         <v>1.3428921</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>2.7651615</v>
+        <v>5.8021602999999997</v>
       </c>
       <c r="B204">
-        <v>6.7868152000000001E-2</v>
+        <v>4.3501928909999998</v>
       </c>
       <c r="C204">
         <v>1.3860258999999999</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>2.7936687</v>
+        <v>5.8326864</v>
       </c>
       <c r="B205">
-        <v>4.7988374E-2</v>
+        <v>4.4279860519999996</v>
       </c>
       <c r="C205">
         <v>1.4291586999999999</v>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>2.8221750000000001</v>
+        <v>5.8632125999999998</v>
       </c>
       <c r="B206">
-        <v>6.2702865999999996E-2</v>
+        <v>4.4958138310000004</v>
       </c>
       <c r="C206">
         <v>1.4722925</v>
@@ -4645,10 +4645,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>2.8506822999999999</v>
+        <v>5.8937387000000001</v>
       </c>
       <c r="B207">
-        <v>5.9740729999999999E-2</v>
+        <v>4.4956113059999998</v>
       </c>
       <c r="C207">
         <v>1.5154262999999999</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>2.8791894999999998</v>
+        <v>5.9242648999999998</v>
       </c>
       <c r="B208">
-        <v>3.4855481000000001E-2</v>
+        <v>4.5693033549999997</v>
       </c>
       <c r="C208">
         <v>1.5585591000000001</v>
@@ -4685,10 +4685,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>2.9076966999999998</v>
+        <v>5.9547910999999996</v>
       </c>
       <c r="B209">
-        <v>3.8739034999999998E-2</v>
+        <v>4.5947797259999996</v>
       </c>
       <c r="C209">
         <v>1.6016929</v>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>2.9362029999999999</v>
+        <v>5.9853171999999999</v>
       </c>
       <c r="B210">
-        <v>6.6926585999999996E-2</v>
+        <v>4.6760098719999998</v>
       </c>
       <c r="C210">
         <v>1.6448256999999999</v>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>2.9647101999999999</v>
+        <v>6.0158433999999996</v>
       </c>
       <c r="B211">
-        <v>4.4867419999999998E-2</v>
+        <v>4.7290664600000003</v>
       </c>
       <c r="C211">
         <v>1.6879595000000001</v>
@@ -4745,10 +4745,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>2.9932175000000001</v>
+        <v>6.0463696000000002</v>
       </c>
       <c r="B212">
-        <v>3.8367367999999999E-2</v>
+        <v>4.7226741099999998</v>
       </c>
       <c r="C212">
         <v>1.7310932999999999</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>3.0217236999999999</v>
+        <v>6.0768956999999997</v>
       </c>
       <c r="B213">
-        <v>6.5481755000000003E-2</v>
+        <v>4.7640437840000001</v>
       </c>
       <c r="C213">
         <v>1.7742260999999999</v>
@@ -4785,10 +4785,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>3.0502310000000001</v>
+        <v>6.1074219000000003</v>
       </c>
       <c r="B214">
-        <v>7.4424246999999999E-2</v>
+        <v>4.7931337090000001</v>
       </c>
       <c r="C214">
         <v>1.8173599</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>3.0787382000000001</v>
+        <v>6.1379479999999997</v>
       </c>
       <c r="B215">
-        <v>4.7518507000000001E-2</v>
+        <v>4.8336811129999999</v>
       </c>
       <c r="C215">
         <v>1.8604927</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>3.1072454</v>
+        <v>6.1684742000000004</v>
       </c>
       <c r="B216">
-        <v>6.6356861000000003E-2</v>
+        <v>4.8161110599999999</v>
       </c>
       <c r="C216">
         <v>1.9036265000000001</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>3.1357517000000001</v>
+        <v>6.1990004000000001</v>
       </c>
       <c r="B217">
-        <v>5.1214112999999999E-2</v>
+        <v>4.9110319760000003</v>
       </c>
       <c r="C217">
         <v>1.9467593000000001</v>
@@ -4865,10 +4865,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>3.1642589999999999</v>
+        <v>6.2295265000000004</v>
       </c>
       <c r="B218">
-        <v>8.3810314999999996E-2</v>
+        <v>4.8717642479999999</v>
       </c>
       <c r="C218">
         <v>1.9898931</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>3.1927661999999999</v>
+        <v>6.2600527000000001</v>
       </c>
       <c r="B219">
-        <v>5.2318890999999999E-2</v>
+        <v>4.9221229580000001</v>
       </c>
       <c r="C219">
         <v>2.0330268999999999</v>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>3.2212733999999998</v>
+        <v>6.2905787999999996</v>
       </c>
       <c r="B220">
-        <v>7.6504522000000005E-2</v>
+        <v>4.9288739149999996</v>
       </c>
       <c r="C220">
         <v>2.0761596999999998</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>3.2497796999999999</v>
+        <v>6.3211050000000002</v>
       </c>
       <c r="B221">
-        <v>0.104945793</v>
+        <v>4.8622292219999999</v>
       </c>
       <c r="C221">
         <v>2.1192934999999999</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>3.2787351999999998</v>
+        <v>6.3516997999999996</v>
       </c>
       <c r="B222">
-        <v>0.101675497</v>
+        <v>4.7965025800000003</v>
       </c>
       <c r="C222">
         <v>2.1624262999999999</v>
@@ -4965,10 +4965,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>3.3076905999999999</v>
+        <v>6.3822956</v>
       </c>
       <c r="B223">
-        <v>0.13310358799999999</v>
+        <v>4.8408532439999998</v>
       </c>
       <c r="C223">
         <v>2.2055600000000002</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>3.3366451000000001</v>
+        <v>6.4128904000000002</v>
       </c>
       <c r="B224">
-        <v>0.192464211</v>
+        <v>4.8330799329999996</v>
       </c>
       <c r="C224">
         <v>2.2486937999999999</v>
@@ -5005,10 +5005,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>3.3656006000000001</v>
+        <v>6.4434852999999999</v>
       </c>
       <c r="B225">
-        <v>0.27488764999999998</v>
+        <v>4.7719727360000004</v>
       </c>
       <c r="C225">
         <v>2.2918267000000001</v>
@@ -5025,10 +5025,10 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>3.3945560000000001</v>
+        <v>6.4740801000000001</v>
       </c>
       <c r="B226">
-        <v>0.32337674799999999</v>
+        <v>4.6897976310000002</v>
       </c>
       <c r="C226">
         <v>2.3349603999999999</v>
@@ -5045,10 +5045,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>3.4235115</v>
+        <v>6.5046758999999996</v>
       </c>
       <c r="B227">
-        <v>0.42132806099999998</v>
+        <v>4.6851855540000003</v>
       </c>
       <c r="C227">
         <v>2.3780933000000002</v>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>3.452467</v>
+        <v>6.5352706999999999</v>
       </c>
       <c r="B228">
-        <v>0.56824903299999996</v>
+        <v>4.7049348020000004</v>
       </c>
       <c r="C228">
         <v>2.421227</v>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>3.4814224</v>
+        <v>6.5658655000000001</v>
       </c>
       <c r="B229">
-        <v>0.71928457300000004</v>
+        <v>4.8228449549999999</v>
       </c>
       <c r="C229">
         <v>2.4643608000000001</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>3.5103768999999998</v>
+        <v>6.5964603000000004</v>
       </c>
       <c r="B230">
-        <v>0.78441828300000005</v>
+        <v>5.0180994459999999</v>
       </c>
       <c r="C230">
         <v>2.5074936999999999</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>3.5393324000000002</v>
+        <v>6.6270560999999999</v>
       </c>
       <c r="B231">
-        <v>0.90504712600000004</v>
+        <v>5.1161413619999996</v>
       </c>
       <c r="C231">
         <v>2.5506274000000002</v>
@@ -5145,10 +5145,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>3.5682877999999998</v>
+        <v>6.6576509000000001</v>
       </c>
       <c r="B232">
-        <v>0.91460830800000004</v>
+        <v>5.2868133899999998</v>
       </c>
       <c r="C232">
         <v>2.5937603</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>3.5972433000000001</v>
+        <v>6.6882457999999998</v>
       </c>
       <c r="B233">
-        <v>0.94418782499999998</v>
+        <v>5.4274634160000002</v>
       </c>
       <c r="C233">
         <v>2.6368939999999998</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>3.6261988000000001</v>
+        <v>6.7188416000000002</v>
       </c>
       <c r="B234">
-        <v>1.000601461</v>
+        <v>5.545639811</v>
       </c>
       <c r="C234">
         <v>2.6800278</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>3.6551532999999998</v>
+        <v>6.7494363999999996</v>
       </c>
       <c r="B235">
-        <v>1.054740531</v>
+        <v>5.585809942</v>
       </c>
       <c r="C235">
         <v>2.7231605999999999</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>3.6841086999999999</v>
+        <v>6.7800311999999998</v>
       </c>
       <c r="B236">
-        <v>1.05855707</v>
+        <v>5.630764825</v>
       </c>
       <c r="C236">
         <v>2.7662944</v>
@@ -5245,10 +5245,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>3.7130641999999998</v>
+        <v>6.8106260000000001</v>
       </c>
       <c r="B237">
-        <v>1.0616095320000001</v>
+        <v>5.6305944309999996</v>
       </c>
       <c r="C237">
         <v>2.8094272</v>
@@ -5265,10 +5265,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>3.7420197000000002</v>
+        <v>6.8409977</v>
       </c>
       <c r="B238">
-        <v>1.0948066910000001</v>
+        <v>5.6391959380000003</v>
       </c>
       <c r="C238">
         <v>2.8525610000000001</v>
@@ -5285,10 +5285,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>3.7709750999999998</v>
+        <v>6.8713693999999998</v>
       </c>
       <c r="B239">
-        <v>1.072672302</v>
+        <v>5.628425612</v>
       </c>
       <c r="C239">
         <v>2.8956947999999998</v>
@@ -5305,10 +5305,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>3.8001193999999998</v>
+        <v>6.9017410000000003</v>
       </c>
       <c r="B240">
-        <v>1.0274570190000001</v>
+        <v>5.7286565219999996</v>
       </c>
       <c r="C240">
         <v>2.9388276000000002</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>3.8292646000000001</v>
+        <v>6.9321136000000001</v>
       </c>
       <c r="B241">
-        <v>1.0926193259999999</v>
+        <v>5.7620756110000002</v>
       </c>
       <c r="C241">
         <v>2.9819613999999999</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>3.8584089000000001</v>
+        <v>6.9624853</v>
       </c>
       <c r="B242">
-        <v>1.071160976</v>
+        <v>5.7351974449999998</v>
       </c>
       <c r="C242">
         <v>3.0250941999999998</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>3.8875532000000002</v>
+        <v>6.9928569999999999</v>
       </c>
       <c r="B243">
-        <v>1.0469095420000001</v>
+        <v>5.8374812709999997</v>
       </c>
       <c r="C243">
         <v>3.068228</v>
@@ -5385,10 +5385,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>3.9166984999999999</v>
+        <v>7.0232286000000004</v>
       </c>
       <c r="B244">
-        <v>1.0464664290000001</v>
+        <v>5.8812966260000001</v>
       </c>
       <c r="C244">
         <v>3.1113618000000001</v>
@@ -5405,10 +5405,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>3.9458427</v>
+        <v>7.0536003000000003</v>
       </c>
       <c r="B245">
-        <v>1.089835978</v>
+        <v>5.9483024389999999</v>
       </c>
       <c r="C245">
         <v>3.1544946</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>3.9749880000000002</v>
+        <v>7.0839720000000002</v>
       </c>
       <c r="B246">
-        <v>1.115657906</v>
+        <v>5.9542487150000003</v>
       </c>
       <c r="C246">
         <v>3.1976284000000001</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>4.0041323000000002</v>
+        <v>7.1143445999999999</v>
       </c>
       <c r="B247">
-        <v>1.137140431</v>
+        <v>5.9740835280000004</v>
       </c>
       <c r="C247">
         <v>3.2407612000000001</v>
@@ -5465,10 +5465,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>4.0332765999999998</v>
+        <v>7.1447162999999998</v>
       </c>
       <c r="B248">
-        <v>1.1035581400000001</v>
+        <v>6.0915672980000002</v>
       </c>
       <c r="C248">
         <v>3.2838949999999998</v>
@@ -5485,10 +5485,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>4.0624218000000001</v>
+        <v>7.1750879000000003</v>
       </c>
       <c r="B249">
-        <v>1.209183691</v>
+        <v>6.103003513</v>
       </c>
       <c r="C249">
         <v>3.3270287999999999</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>4.0915660999999997</v>
+        <v>7.2054596000000002</v>
       </c>
       <c r="B250">
-        <v>1.2850370600000001</v>
+        <v>6.2478441230000001</v>
       </c>
       <c r="C250">
         <v>3.3701615999999999</v>
@@ -5525,10 +5525,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>4.1207104000000001</v>
+        <v>7.2358313000000001</v>
       </c>
       <c r="B251">
-        <v>1.320758704</v>
+        <v>6.3121394349999997</v>
       </c>
       <c r="C251">
         <v>3.4132954</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>4.1498556000000004</v>
+        <v>7.2662028999999997</v>
       </c>
       <c r="B252">
-        <v>1.4732025099999999</v>
+        <v>6.3639511239999997</v>
       </c>
       <c r="C252">
         <v>3.4564282</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>4.1789999</v>
+        <v>7.2965745999999996</v>
       </c>
       <c r="B253">
-        <v>1.5673602390000001</v>
+        <v>6.4038908460000004</v>
       </c>
       <c r="C253">
         <v>3.4995620000000001</v>
@@ -5585,10 +5585,10 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>4.2081441999999996</v>
+        <v>7.3269472000000002</v>
       </c>
       <c r="B254">
-        <v>1.6802802670000001</v>
+        <v>6.4657964909999999</v>
       </c>
       <c r="C254">
         <v>3.5426958000000002</v>
@@ -5605,10 +5605,10 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>4.2372893999999999</v>
+        <v>7.3575153000000002</v>
       </c>
       <c r="B255">
-        <v>1.763626299</v>
+        <v>6.4511406869999997</v>
       </c>
       <c r="C255">
         <v>3.5858286000000001</v>
@@ -5625,10 +5625,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>4.2664337000000003</v>
+        <v>7.3880825000000003</v>
       </c>
       <c r="B256">
-        <v>1.82555577</v>
+        <v>6.532192019</v>
       </c>
       <c r="C256">
         <v>3.6289623999999998</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>4.2964086999999997</v>
+        <v>7.4186506000000003</v>
       </c>
       <c r="B257">
-        <v>1.861411838</v>
+        <v>6.5621907469999998</v>
       </c>
       <c r="C257">
         <v>3.6720951999999998</v>
@@ -5665,10 +5665,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>4.3263835999999998</v>
+        <v>7.4492187999999997</v>
       </c>
       <c r="B258">
-        <v>1.8364251810000001</v>
+        <v>6.6117315919999999</v>
       </c>
       <c r="C258">
         <v>3.7152289999999999</v>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>4.3563584999999998</v>
+        <v>7.4797868999999997</v>
       </c>
       <c r="B259">
-        <v>1.8299034670000001</v>
+        <v>6.6183544950000002</v>
       </c>
       <c r="C259">
         <v>3.7583628</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>4.3863335000000001</v>
+        <v>7.5103540000000004</v>
       </c>
       <c r="B260">
-        <v>1.816904809</v>
+        <v>6.6529900450000001</v>
       </c>
       <c r="C260">
         <v>3.8014956</v>
@@ -5725,10 +5725,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>4.4163074</v>
+        <v>7.5409221999999998</v>
       </c>
       <c r="B261">
-        <v>1.8812747270000001</v>
+        <v>6.6642880680000003</v>
       </c>
       <c r="C261">
         <v>3.8446294000000001</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>4.4462824000000003</v>
+        <v>7.5714902999999998</v>
       </c>
       <c r="B262">
-        <v>1.894588749</v>
+        <v>6.5965139280000002</v>
       </c>
       <c r="C262">
         <v>3.8877622000000001</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>4.4762573000000003</v>
+        <v>7.6020574999999999</v>
       </c>
       <c r="B263">
-        <v>1.87263142</v>
+        <v>6.6406186649999999</v>
       </c>
       <c r="C263">
         <v>3.9308960000000002</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>4.5062322999999997</v>
+        <v>7.6326255999999999</v>
       </c>
       <c r="B264">
-        <v>1.883973914</v>
+        <v>6.6523476080000004</v>
       </c>
       <c r="C264">
         <v>3.9740297999999998</v>
@@ -5805,10 +5805,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>4.5362071999999998</v>
+        <v>7.6631936999999999</v>
       </c>
       <c r="B265">
-        <v>1.933773261</v>
+        <v>6.6222487369999996</v>
       </c>
       <c r="C265">
         <v>4.0171625999999998</v>
@@ -5825,10 +5825,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>4.5661820999999998</v>
+        <v>7.6937609</v>
       </c>
       <c r="B266">
-        <v>1.961763572</v>
+        <v>6.657492532</v>
       </c>
       <c r="C266">
         <v>4.0602964000000004</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>4.5961571000000001</v>
+        <v>7.724329</v>
       </c>
       <c r="B267">
-        <v>1.9925790489999999</v>
+        <v>6.6006195969999997</v>
       </c>
       <c r="C267">
         <v>4.1034290000000002</v>
@@ -5865,10 +5865,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>4.6261320000000001</v>
+        <v>7.7548971</v>
       </c>
       <c r="B268">
-        <v>2.0077412969999999</v>
+        <v>6.4419548410000003</v>
       </c>
       <c r="C268">
         <v>4.1465630000000004</v>
@@ -5885,10 +5885,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>4.6561060000000003</v>
+        <v>7.7854652</v>
       </c>
       <c r="B269">
-        <v>2.0234843470000001</v>
+        <v>6.580771081</v>
       </c>
       <c r="C269">
         <v>4.1896969999999998</v>
@@ -5905,10 +5905,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>4.6860809000000003</v>
+        <v>7.8160324000000001</v>
       </c>
       <c r="B270">
-        <v>2.0815702310000002</v>
+        <v>6.5399526100000003</v>
       </c>
       <c r="C270">
         <v>4.2328295999999996</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>4.7160558999999997</v>
+        <v>7.8466005000000001</v>
       </c>
       <c r="B271">
-        <v>2.1193361400000001</v>
+        <v>6.5110850510000002</v>
       </c>
       <c r="C271">
         <v>4.2759634000000002</v>
@@ -5945,10 +5945,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>4.7460307999999998</v>
+        <v>7.8779421000000003</v>
       </c>
       <c r="B272">
-        <v>2.1312311629999998</v>
+        <v>6.4922355759999997</v>
       </c>
       <c r="C272">
         <v>4.319096</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>4.7760056999999998</v>
+        <v>7.9092836000000002</v>
       </c>
       <c r="B273">
-        <v>2.1299869359999999</v>
+        <v>6.5193503000000002</v>
       </c>
       <c r="C273">
         <v>4.3622300000000003</v>
@@ -5985,10 +5985,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>4.8059807000000001</v>
+        <v>7.9406252000000004</v>
       </c>
       <c r="B274">
-        <v>2.1173066550000001</v>
+        <v>6.4986065770000003</v>
       </c>
       <c r="C274">
         <v>4.4053639999999996</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>4.8358574000000001</v>
+        <v>7.9719667000000003</v>
       </c>
       <c r="B275">
-        <v>2.1175646079999999</v>
+        <v>6.4739817009999996</v>
       </c>
       <c r="C275">
         <v>4.4484966000000004</v>
@@ -6025,10 +6025,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>4.8657330999999999</v>
+        <v>8.0033083000000005</v>
       </c>
       <c r="B276">
-        <v>2.1490037929999999</v>
+        <v>6.4938927360000003</v>
       </c>
       <c r="C276">
         <v>4.4916304</v>
@@ -6045,10 +6045,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>4.8956099000000002</v>
+        <v>8.0346498000000004</v>
       </c>
       <c r="B277">
-        <v>2.1569434869999999</v>
+        <v>6.4400481200000002</v>
       </c>
       <c r="C277">
         <v>4.5347629999999999</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>4.9254866000000002</v>
+        <v>8.0659913999999997</v>
       </c>
       <c r="B278">
-        <v>2.1654793400000001</v>
+        <v>6.3744764439999999</v>
       </c>
       <c r="C278">
         <v>4.5778970000000001</v>
@@ -6085,10 +6085,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>4.9553623</v>
+        <v>8.0973330000000008</v>
       </c>
       <c r="B279">
-        <v>2.2001936710000001</v>
+        <v>6.2936088999999997</v>
       </c>
       <c r="C279">
         <v>4.6210310000000003</v>
@@ -6105,10 +6105,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>4.985239</v>
+        <v>8.1286745000000007</v>
       </c>
       <c r="B280">
-        <v>2.179315758</v>
+        <v>6.229879393</v>
       </c>
       <c r="C280">
         <v>4.6641636000000002</v>
@@ -6125,10 +6125,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>5.0151157</v>
+        <v>8.1600161</v>
       </c>
       <c r="B281">
-        <v>2.1844772529999998</v>
+        <v>6.2068260100000003</v>
       </c>
       <c r="C281">
         <v>4.7072973999999999</v>
@@ -6145,10 +6145,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>5.0449915000000001</v>
+        <v>8.1913575999999999</v>
       </c>
       <c r="B282">
-        <v>2.1867795590000001</v>
+        <v>6.2482147240000003</v>
       </c>
       <c r="C282">
         <v>4.7504299999999997</v>
@@ -6165,10 +6165,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>5.0748682000000001</v>
+        <v>8.2226991999999992</v>
       </c>
       <c r="B283">
-        <v>2.175108716</v>
+        <v>6.2633316060000004</v>
       </c>
       <c r="C283">
         <v>4.7935639999999999</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>5.1047449</v>
+        <v>8.2540406999999991</v>
       </c>
       <c r="B284">
-        <v>2.187123003</v>
+        <v>6.2973652830000004</v>
       </c>
       <c r="C284">
         <v>4.8366977999999996</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>5.1346207000000001</v>
+        <v>8.2853823000000002</v>
       </c>
       <c r="B285">
-        <v>2.197205925</v>
+        <v>6.4399811820000004</v>
       </c>
       <c r="C285">
         <v>4.8798306</v>
@@ -6225,10 +6225,10 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>5.1644974000000001</v>
+        <v>8.3167238000000001</v>
       </c>
       <c r="B286">
-        <v>2.218361169</v>
+        <v>6.4375340809999999</v>
       </c>
       <c r="C286">
         <v>4.9229643999999997</v>
@@ -6245,10 +6245,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>5.1943741000000001</v>
+        <v>8.3480653999999994</v>
       </c>
       <c r="B287">
-        <v>2.2656499960000001</v>
+        <v>6.5538805150000004</v>
       </c>
       <c r="C287">
         <v>4.9660970000000004</v>
@@ -6265,10 +6265,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>5.2242508000000001</v>
+        <v>8.3787021999999993</v>
       </c>
       <c r="B288">
-        <v>2.2706090379999999</v>
+        <v>6.6280457019999997</v>
       </c>
       <c r="C288">
         <v>5.0092309999999998</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>5.2541264999999999</v>
+        <v>8.4093399000000009</v>
       </c>
       <c r="B289">
-        <v>2.2564921199999999</v>
+        <v>6.6605285209999998</v>
       </c>
       <c r="C289">
         <v>5.0523647</v>
@@ -6305,10 +6305,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>5.2840033000000002</v>
+        <v>8.4399767000000008</v>
       </c>
       <c r="B290">
-        <v>2.291398949</v>
+        <v>6.6725997850000001</v>
       </c>
       <c r="C290">
         <v>5.0954975999999998</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>5.3138800000000002</v>
+        <v>8.4706144000000005</v>
       </c>
       <c r="B291">
-        <v>2.3043374000000001</v>
+        <v>6.6717906859999996</v>
       </c>
       <c r="C291">
         <v>5.1386313000000001</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>5.3443975000000004</v>
+        <v>8.5012512000000005</v>
       </c>
       <c r="B292">
-        <v>2.337549696</v>
+        <v>6.6805337529999997</v>
       </c>
       <c r="C292">
         <v>5.1817640000000003</v>
@@ -6365,10 +6365,10 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>5.3749150999999999</v>
+        <v>8.5318889999999996</v>
       </c>
       <c r="B293">
-        <v>2.3417121270000001</v>
+        <v>6.662318065</v>
       </c>
       <c r="C293">
         <v>5.2248979999999996</v>
@@ -6385,10 +6385,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>5.4054327000000004</v>
+        <v>8.5625257000000001</v>
       </c>
       <c r="B294">
-        <v>2.3509223920000002</v>
+        <v>6.7181738390000003</v>
       </c>
       <c r="C294">
         <v>5.2680316999999999</v>
@@ -6405,10 +6405,10 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>5.4359503</v>
+        <v>8.5931625</v>
       </c>
       <c r="B295">
-        <v>2.3773809159999999</v>
+        <v>6.738740935</v>
       </c>
       <c r="C295">
         <v>5.3111645999999997</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>5.4664678999999996</v>
+        <v>8.6238002999999992</v>
       </c>
       <c r="B296">
-        <v>2.4262844870000002</v>
+        <v>6.7410020250000002</v>
       </c>
       <c r="C296">
         <v>5.3542983</v>
@@ -6445,10 +6445,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>5.4969853999999998</v>
+        <v>8.6544371000000009</v>
       </c>
       <c r="B297">
-        <v>2.497428067</v>
+        <v>6.7243588540000001</v>
       </c>
       <c r="C297">
         <v>5.3974310000000001</v>
@@ -6465,10 +6465,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>5.5275030000000003</v>
+        <v>8.6850748000000006</v>
       </c>
       <c r="B298">
-        <v>2.5808819810000001</v>
+        <v>6.6829267799999998</v>
       </c>
       <c r="C298">
         <v>5.4405650000000003</v>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>5.5580205999999999</v>
+        <v>8.7157116000000006</v>
       </c>
       <c r="B299">
-        <v>2.7548187130000001</v>
+        <v>6.7008799740000002</v>
       </c>
       <c r="C299">
         <v>5.4836986999999997</v>
@@ -6505,10 +6505,10 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>5.5885382000000003</v>
+        <v>8.7463484000000005</v>
       </c>
       <c r="B300">
-        <v>3.0488920589999999</v>
+        <v>6.7389046390000003</v>
       </c>
       <c r="C300">
         <v>5.5268315000000001</v>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>5.6190556999999997</v>
+        <v>8.7769861000000002</v>
       </c>
       <c r="B301">
-        <v>3.255913783</v>
+        <v>6.7652137239999997</v>
       </c>
       <c r="C301">
         <v>5.5699652999999998</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>5.6495733000000001</v>
+        <v>8.8076229000000001</v>
       </c>
       <c r="B302">
-        <v>3.3907929289999998</v>
+        <v>6.7748430170000002</v>
       </c>
       <c r="C302">
         <v>5.6130979999999999</v>
@@ -6565,10 +6565,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>5.6800908999999997</v>
+        <v>8.8382606999999993</v>
       </c>
       <c r="B303">
-        <v>3.6625272199999999</v>
+        <v>6.7992709050000002</v>
       </c>
       <c r="C303">
         <v>5.6562320000000001</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>5.7106075000000001</v>
+        <v>8.8687439000000001</v>
       </c>
       <c r="B304">
-        <v>4.0449230360000001</v>
+        <v>6.8125113859999997</v>
       </c>
       <c r="C304">
         <v>5.6993647000000003</v>
@@ -6605,10 +6605,10 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>5.7411250999999996</v>
+        <v>8.8992281000000002</v>
       </c>
       <c r="B305">
-        <v>4.2034068390000003</v>
+        <v>6.7857663439999998</v>
       </c>
       <c r="C305">
         <v>5.7424985</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>5.7716427000000001</v>
+        <v>8.9297112999999992</v>
       </c>
       <c r="B306">
-        <v>4.3216029840000001</v>
+        <v>6.8127652589999999</v>
       </c>
       <c r="C306">
         <v>5.7856322999999996</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>5.8021602999999997</v>
+        <v>8.9601945999999995</v>
       </c>
       <c r="B307">
-        <v>4.3501928909999998</v>
+        <v>6.8494553189999996</v>
       </c>
       <c r="C307">
         <v>5.8287649999999998</v>
@@ -6665,10 +6665,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>5.8326864</v>
+        <v>8.9906778000000003</v>
       </c>
       <c r="B308">
-        <v>4.4279860519999996</v>
+        <v>6.9029277569999996</v>
       </c>
       <c r="C308">
         <v>5.871899</v>
@@ -6685,10 +6685,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>5.8632125999999998</v>
+        <v>9.0211611000000005</v>
       </c>
       <c r="B309">
-        <v>4.4958138310000004</v>
+        <v>6.876911765</v>
       </c>
       <c r="C309">
         <v>5.9150317000000001</v>
@@ -6705,10 +6705,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>5.8937387000000001</v>
+        <v>9.0516442999999995</v>
       </c>
       <c r="B310">
-        <v>4.4956113059999998</v>
+        <v>6.9038180279999999</v>
       </c>
       <c r="C310">
         <v>5.9581654999999998</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>5.9242648999999998</v>
+        <v>9.0821295000000006</v>
       </c>
       <c r="B311">
-        <v>4.5693033549999997</v>
+        <v>6.9072823010000004</v>
       </c>
       <c r="C311">
         <v>6.0012993000000003</v>
@@ -6745,10 +6745,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>5.9547910999999996</v>
+        <v>9.1126126999999997</v>
       </c>
       <c r="B312">
-        <v>4.5947797259999996</v>
+        <v>6.8761460510000001</v>
       </c>
       <c r="C312">
         <v>6.0444319999999996</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>5.9853171999999999</v>
+        <v>9.1430959999999999</v>
       </c>
       <c r="B313">
-        <v>4.6760098719999998</v>
+        <v>6.8980525899999998</v>
       </c>
       <c r="C313">
         <v>6.0875659999999998</v>
@@ -6785,10 +6785,10 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>6.0158433999999996</v>
+        <v>9.1735792000000007</v>
       </c>
       <c r="B314">
-        <v>4.7290664600000003</v>
+        <v>6.9462453479999997</v>
       </c>
       <c r="C314">
         <v>6.1306986999999999</v>
@@ -6805,10 +6805,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>6.0463696000000002</v>
+        <v>9.2040624999999991</v>
       </c>
       <c r="B315">
-        <v>4.7226741099999998</v>
+        <v>6.9501517799999997</v>
       </c>
       <c r="C315">
         <v>6.1738324999999996</v>
@@ -6825,10 +6825,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>6.0768956999999997</v>
+        <v>9.2345457</v>
       </c>
       <c r="B316">
-        <v>4.7640437840000001</v>
+        <v>7.013739588</v>
       </c>
       <c r="C316">
         <v>6.2169663000000002</v>
@@ -6845,10 +6845,10 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>6.1074219000000003</v>
+        <v>9.2650290000000002</v>
       </c>
       <c r="B317">
-        <v>4.7931337090000001</v>
+        <v>6.9970034200000004</v>
       </c>
       <c r="C317">
         <v>6.2600990000000003</v>
@@ -6865,10 +6865,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>6.1379479999999997</v>
+        <v>9.2955141000000001</v>
       </c>
       <c r="B318">
-        <v>4.8336811129999999</v>
+        <v>6.9736449069999997</v>
       </c>
       <c r="C318">
         <v>6.3032329999999996</v>
@@ -6885,10 +6885,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>6.1684742000000004</v>
+        <v>9.3259974000000003</v>
       </c>
       <c r="B319">
-        <v>4.8161110599999999</v>
+        <v>7.0172157300000002</v>
       </c>
       <c r="C319">
         <v>6.3463656999999998</v>
@@ -6905,10 +6905,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>6.1990004000000001</v>
+        <v>9.3564805999999994</v>
       </c>
       <c r="B320">
-        <v>4.9110319760000003</v>
+        <v>7.0151675229999997</v>
       </c>
       <c r="C320">
         <v>6.3894995000000003</v>
@@ -6925,10 +6925,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>6.2295265000000004</v>
+        <v>9.3867940999999995</v>
       </c>
       <c r="B321">
-        <v>4.8717642479999999</v>
+        <v>6.9782753560000002</v>
       </c>
       <c r="C321">
         <v>6.4326333</v>
@@ -6945,10 +6945,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>6.2600527000000001</v>
+        <v>9.4171075999999996</v>
       </c>
       <c r="B322">
-        <v>4.9221229580000001</v>
+        <v>6.9681714469999996</v>
       </c>
       <c r="C322">
         <v>6.4757660000000001</v>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>6.2905787999999996</v>
+        <v>9.4474210999999997</v>
       </c>
       <c r="B323">
-        <v>4.9288739149999996</v>
+        <v>6.9722088229999999</v>
       </c>
       <c r="C323">
         <v>6.5189000000000004</v>
@@ -6985,10 +6985,10 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>6.3211050000000002</v>
+        <v>9.4777345999999998</v>
       </c>
       <c r="B324">
-        <v>4.8622292219999999</v>
+        <v>6.95772718</v>
       </c>
       <c r="C324">
         <v>6.5620326999999996</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>6.3516997999999996</v>
+        <v>9.5080480999999999</v>
       </c>
       <c r="B325">
-        <v>4.7965025800000003</v>
+        <v>6.9723989059999996</v>
       </c>
       <c r="C325">
         <v>6.6051665000000002</v>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>6.3822956</v>
+        <v>9.5383615000000006</v>
       </c>
       <c r="B326">
-        <v>4.8408532439999998</v>
+        <v>7.0117510750000003</v>
       </c>
       <c r="C326">
         <v>6.6483002999999998</v>
@@ -7045,10 +7045,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>6.4128904000000002</v>
+        <v>9.5686730999999998</v>
       </c>
       <c r="B327">
-        <v>4.8330799329999996</v>
+        <v>7.0158686660000003</v>
       </c>
       <c r="C327">
         <v>6.691433</v>
@@ -7065,10 +7065,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>6.4434852999999999</v>
+        <v>9.5989865999999999</v>
       </c>
       <c r="B328">
-        <v>4.7719727360000004</v>
+        <v>7.0147820340000004</v>
       </c>
       <c r="C328">
         <v>6.7345670000000002</v>
@@ -7085,10 +7085,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>6.4740801000000001</v>
+        <v>9.6293001</v>
       </c>
       <c r="B329">
-        <v>4.6897976310000002</v>
+        <v>7.0338986630000004</v>
       </c>
       <c r="C329">
         <v>6.7776997000000003</v>
@@ -7105,10 +7105,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>6.5046758999999996</v>
+        <v>9.6596136000000001</v>
       </c>
       <c r="B330">
-        <v>4.6851855540000003</v>
+        <v>7.2742605530000004</v>
       </c>
       <c r="C330">
         <v>6.8208335</v>
@@ -7125,10 +7125,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>6.5352706999999999</v>
+        <v>9.6899271000000002</v>
       </c>
       <c r="B331">
-        <v>4.7049348020000004</v>
+        <v>7.3458910939999997</v>
       </c>
       <c r="C331">
         <v>6.8639672999999997</v>
@@ -7145,10 +7145,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>6.5658655000000001</v>
+        <v>9.7202406000000003</v>
       </c>
       <c r="B332">
-        <v>4.8228449549999999</v>
+        <v>7.5281574530000004</v>
       </c>
       <c r="C332">
         <v>6.9070999999999998</v>
@@ -7165,10 +7165,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>6.5964603000000004</v>
+        <v>9.7505541000000004</v>
       </c>
       <c r="B333">
-        <v>5.0180994459999999</v>
+        <v>7.6222188190000004</v>
       </c>
       <c r="C333">
         <v>6.950234</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>6.6270560999999999</v>
+        <v>9.7808676000000006</v>
       </c>
       <c r="B334">
-        <v>5.1161413619999996</v>
+        <v>7.6824352859999996</v>
       </c>
       <c r="C334">
         <v>6.9933667000000002</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>6.6576509000000001</v>
+        <v>9.8111811000000007</v>
       </c>
       <c r="B335">
-        <v>5.2868133899999998</v>
+        <v>7.7381045860000004</v>
       </c>
       <c r="C335">
         <v>7.0365004999999998</v>
@@ -7225,10 +7225,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>6.6882457999999998</v>
+        <v>9.8414946000000008</v>
       </c>
       <c r="B336">
-        <v>5.4274634160000002</v>
+        <v>7.7797775720000004</v>
       </c>
       <c r="C336">
         <v>7.0796343000000004</v>
@@ -7245,10 +7245,10 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>6.7188416000000002</v>
+        <v>9.8718081000000009</v>
       </c>
       <c r="B337">
-        <v>5.545639811</v>
+        <v>7.8088272520000004</v>
       </c>
       <c r="C337">
         <v>7.1227669999999996</v>
@@ -7265,10 +7265,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>6.7494363999999996</v>
+        <v>9.9017859000000001</v>
       </c>
       <c r="B338">
-        <v>5.585809942</v>
+        <v>7.8248377739999997</v>
       </c>
       <c r="C338">
         <v>7.1659009999999999</v>
@@ -7285,10 +7285,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>6.7800311999999998</v>
+        <v>9.9317616999999991</v>
       </c>
       <c r="B339">
-        <v>5.630764825</v>
+        <v>7.8518758030000004</v>
       </c>
       <c r="C339">
         <v>7.2090337</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>6.8106260000000001</v>
+        <v>9.9617395000000002</v>
       </c>
       <c r="B340">
-        <v>5.6305944309999996</v>
+        <v>7.8187524420000001</v>
       </c>
       <c r="C340">
         <v>7.2521674999999997</v>
@@ -7325,10 +7325,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>6.8409977</v>
+        <v>9.9917154000000004</v>
       </c>
       <c r="B341">
-        <v>5.6391959380000003</v>
+        <v>7.7933921829999999</v>
       </c>
       <c r="C341">
         <v>7.2953013000000002</v>
@@ -7345,10 +7345,10 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>6.8713693999999998</v>
+        <v>10.021693000000001</v>
       </c>
       <c r="B342">
-        <v>5.628425612</v>
+        <v>7.8445357319999998</v>
       </c>
       <c r="C342">
         <v>7.3384340000000003</v>
@@ -7365,10 +7365,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>6.9017410000000003</v>
+        <v>10.051669</v>
       </c>
       <c r="B343">
-        <v>5.7286565219999996</v>
+        <v>7.8459820069999999</v>
       </c>
       <c r="C343">
         <v>7.3815679999999997</v>
@@ -7385,10 +7385,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>6.9321136000000001</v>
+        <v>10.081647</v>
       </c>
       <c r="B344">
-        <v>5.7620756110000002</v>
+        <v>7.881245904</v>
       </c>
       <c r="C344">
         <v>7.4247006999999998</v>
@@ -7405,10 +7405,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>6.9624853</v>
+        <v>10.111625</v>
       </c>
       <c r="B345">
-        <v>5.7351974449999998</v>
+        <v>7.8675420540000003</v>
       </c>
       <c r="C345">
         <v>7.4678345000000004</v>
@@ -7425,10 +7425,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>6.9928569999999999</v>
+        <v>10.141601</v>
       </c>
       <c r="B346">
-        <v>5.8374812709999997</v>
+        <v>7.8963964950000003</v>
       </c>
       <c r="C346">
         <v>7.5109683</v>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>7.0232286000000004</v>
+        <v>10.171578</v>
       </c>
       <c r="B347">
-        <v>5.8812966260000001</v>
+        <v>7.9106819660000003</v>
       </c>
       <c r="C347">
         <v>7.5541010000000002</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>7.0536003000000003</v>
+        <v>10.201554</v>
       </c>
       <c r="B348">
-        <v>5.9483024389999999</v>
+        <v>7.8558697909999999</v>
       </c>
       <c r="C348">
         <v>7.5972350000000004</v>
@@ -7485,10 +7485,10 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>7.0839720000000002</v>
+        <v>10.231532</v>
       </c>
       <c r="B349">
-        <v>5.9542487150000003</v>
+        <v>7.9694502419999997</v>
       </c>
       <c r="C349">
         <v>7.6403676999999997</v>
@@ -7505,10 +7505,10 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>7.1143445999999999</v>
+        <v>10.261507999999999</v>
       </c>
       <c r="B350">
-        <v>5.9740835280000004</v>
+        <v>7.9573134469999998</v>
       </c>
       <c r="C350">
         <v>7.6835015000000002</v>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>7.1447162999999998</v>
+        <v>10.291486000000001</v>
       </c>
       <c r="B351">
-        <v>6.0915672980000002</v>
+        <v>8.0313894050000005</v>
       </c>
       <c r="C351">
         <v>7.7266352999999999</v>
@@ -7545,10 +7545,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>7.1750879000000003</v>
+        <v>10.321462</v>
       </c>
       <c r="B352">
-        <v>6.103003513</v>
+        <v>8.0262479150000008</v>
       </c>
       <c r="C352">
         <v>7.769768</v>
@@ -7565,10 +7565,10 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>7.2054596000000002</v>
+        <v>10.351438999999999</v>
       </c>
       <c r="B353">
-        <v>6.2478441230000001</v>
+        <v>8.1139947380000006</v>
       </c>
       <c r="C353">
         <v>7.8129020000000002</v>
@@ -7585,10 +7585,10 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>7.2358313000000001</v>
+        <v>10.381600000000001</v>
       </c>
       <c r="B354">
-        <v>6.3121394349999997</v>
+        <v>8.0950511850000009</v>
       </c>
       <c r="C354">
         <v>7.8560347000000004</v>
@@ -7605,10 +7605,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>7.2662028999999997</v>
+        <v>10.411759</v>
       </c>
       <c r="B355">
-        <v>6.3639511239999997</v>
+        <v>8.1307565969999995</v>
       </c>
       <c r="C355">
         <v>7.8991685</v>
@@ -7625,10 +7625,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>7.2965745999999996</v>
+        <v>10.44192</v>
       </c>
       <c r="B356">
-        <v>6.4038908460000004</v>
+        <v>8.1983935339999991</v>
       </c>
       <c r="C356">
         <v>7.9423022000000003</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>7.3269472000000002</v>
+        <v>10.472080999999999</v>
       </c>
       <c r="B357">
-        <v>6.4657964909999999</v>
+        <v>8.2129337969999998</v>
       </c>
       <c r="C357">
         <v>7.9854349999999998</v>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>7.3575153000000002</v>
+        <v>10.502242000000001</v>
       </c>
       <c r="B358">
-        <v>6.4511406869999997</v>
+        <v>8.2169418959999998</v>
       </c>
       <c r="C358">
         <v>8.0285689999999992</v>
@@ -7685,10 +7685,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>7.3880825000000003</v>
+        <v>10.532401</v>
       </c>
       <c r="B359">
-        <v>6.532192019</v>
+        <v>8.2462578129999997</v>
       </c>
       <c r="C359">
         <v>8.0717017000000002</v>
@@ -7705,10 +7705,10 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>7.4186506000000003</v>
+        <v>10.562562</v>
       </c>
       <c r="B360">
-        <v>6.5621907469999998</v>
+        <v>8.2560304779999996</v>
       </c>
       <c r="C360">
         <v>8.1148354000000005</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>7.4492187999999997</v>
+        <v>10.592722999999999</v>
       </c>
       <c r="B361">
-        <v>6.6117315919999999</v>
+        <v>8.2395298429999997</v>
       </c>
       <c r="C361">
         <v>8.1579689999999996</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>7.4797868999999997</v>
+        <v>10.622882000000001</v>
       </c>
       <c r="B362">
-        <v>6.6183544950000002</v>
+        <v>8.2196846790000002</v>
       </c>
       <c r="C362">
         <v>8.2011020000000006</v>
@@ -7765,10 +7765,10 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>7.5103540000000004</v>
+        <v>10.653043</v>
       </c>
       <c r="B363">
-        <v>6.6529900450000001</v>
+        <v>8.2487198060000004</v>
       </c>
       <c r="C363">
         <v>8.2442360000000008</v>
@@ -7785,10 +7785,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>7.5409221999999998</v>
+        <v>10.683204</v>
       </c>
       <c r="B364">
-        <v>6.6642880680000003</v>
+        <v>8.28927221</v>
       </c>
       <c r="C364">
         <v>8.287369</v>
@@ -7805,10 +7805,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>7.5714902999999998</v>
+        <v>10.713362999999999</v>
       </c>
       <c r="B365">
-        <v>6.5965139280000002</v>
+        <v>8.329562803</v>
       </c>
       <c r="C365">
         <v>8.3305019999999992</v>
@@ -7825,10 +7825,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>7.6020574999999999</v>
+        <v>10.743524000000001</v>
       </c>
       <c r="B366">
-        <v>6.6406186649999999</v>
+        <v>8.3089205859999993</v>
       </c>
       <c r="C366">
         <v>8.3736370000000004</v>
@@ -7845,10 +7845,10 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>7.6326255999999999</v>
+        <v>10.773685</v>
       </c>
       <c r="B367">
-        <v>6.6523476080000004</v>
+        <v>8.2684365300000007</v>
       </c>
       <c r="C367">
         <v>8.4167699999999996</v>
@@ -7865,10 +7865,10 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>7.6631936999999999</v>
+        <v>10.803845000000001</v>
       </c>
       <c r="B368">
-        <v>6.6222487369999996</v>
+        <v>8.2548655439999994</v>
       </c>
       <c r="C368">
         <v>8.4599019999999996</v>
@@ -7885,10 +7885,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>7.6937609</v>
+        <v>10.834004</v>
       </c>
       <c r="B369">
-        <v>6.657492532</v>
+        <v>8.2800034839999999</v>
       </c>
       <c r="C369">
         <v>8.5030350000000006</v>
@@ -7905,10 +7905,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>7.724329</v>
+        <v>10.864165</v>
       </c>
       <c r="B370">
-        <v>6.6006195969999997</v>
+        <v>8.2824651009999997</v>
       </c>
       <c r="C370">
         <v>8.54617</v>
@@ -7925,10 +7925,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>7.7548971</v>
+        <v>10.894721000000001</v>
       </c>
       <c r="B371">
-        <v>6.4419548410000003</v>
+        <v>8.2976632880000007</v>
       </c>
       <c r="C371">
         <v>8.5893029999999992</v>
@@ -7945,10 +7945,10 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>7.7854652</v>
+        <v>10.925276999999999</v>
       </c>
       <c r="B372">
-        <v>6.580771081</v>
+        <v>8.2782233610000002</v>
       </c>
       <c r="C372">
         <v>8.6324360000000002</v>
@@ -7965,10 +7965,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>7.8160324000000001</v>
+        <v>10.955833999999999</v>
       </c>
       <c r="B373">
-        <v>6.5399526100000003</v>
+        <v>8.2657183990000007</v>
       </c>
       <c r="C373">
         <v>8.6755700000000004</v>
@@ -7985,10 +7985,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>7.8466005000000001</v>
+        <v>10.98639</v>
       </c>
       <c r="B374">
-        <v>6.5110850510000002</v>
+        <v>8.3249618289999994</v>
       </c>
       <c r="C374">
         <v>8.7187029999999996</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>7.8779421000000003</v>
+        <v>11.016946000000001</v>
       </c>
       <c r="B375">
-        <v>6.4922355759999997</v>
+        <v>8.1807133029999992</v>
       </c>
       <c r="C375">
         <v>8.7618360000000006</v>
@@ -8025,10 +8025,10 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>7.9092836000000002</v>
+        <v>11.047502</v>
       </c>
       <c r="B376">
-        <v>6.5193503000000002</v>
+        <v>8.1785564659999999</v>
       </c>
       <c r="C376">
         <v>8.8049710000000001</v>
@@ -8045,10 +8045,10 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>7.9406252000000004</v>
+        <v>11.078059</v>
       </c>
       <c r="B377">
-        <v>6.4986065770000003</v>
+        <v>8.1818846539999992</v>
       </c>
       <c r="C377">
         <v>8.8481039999999993</v>
@@ -8065,10 +8065,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>7.9719667000000003</v>
+        <v>11.108615</v>
       </c>
       <c r="B378">
-        <v>6.4739817009999996</v>
+        <v>8.1802265250000001</v>
       </c>
       <c r="C378">
         <v>8.8912359999999993</v>
@@ -8085,10 +8085,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>8.0033083000000005</v>
+        <v>11.139170999999999</v>
       </c>
       <c r="B379">
-        <v>6.4938927360000003</v>
+        <v>8.1268456090000001</v>
       </c>
       <c r="C379">
         <v>8.9343690000000002</v>
@@ -8105,10 +8105,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>8.0346498000000004</v>
+        <v>11.169726000000001</v>
       </c>
       <c r="B380">
-        <v>6.4400481200000002</v>
+        <v>8.1684641360000008</v>
       </c>
       <c r="C380">
         <v>8.9775039999999997</v>
@@ -8125,10 +8125,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>8.0659913999999997</v>
+        <v>11.200284</v>
       </c>
       <c r="B381">
-        <v>6.3744764439999999</v>
+        <v>8.0995755070000008</v>
       </c>
       <c r="C381">
         <v>9.0206370000000007</v>
@@ -8145,10 +8145,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>8.0973330000000008</v>
+        <v>11.230840000000001</v>
       </c>
       <c r="B382">
-        <v>6.2936088999999997</v>
+        <v>8.1157455380000005</v>
       </c>
       <c r="C382">
         <v>9.0637709999999991</v>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>8.1286745000000007</v>
+        <v>11.261395</v>
       </c>
       <c r="B383">
-        <v>6.229879393</v>
+        <v>8.0810794250000004</v>
       </c>
       <c r="C383">
         <v>9.1069040000000001</v>
@@ -8185,10 +8185,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>8.1600161</v>
+        <v>11.291950999999999</v>
       </c>
       <c r="B384">
-        <v>6.2068260100000003</v>
+        <v>8.0272817439999997</v>
       </c>
       <c r="C384">
         <v>9.1500369999999993</v>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>8.1913575999999999</v>
+        <v>11.322509</v>
       </c>
       <c r="B385">
-        <v>6.2482147240000003</v>
+        <v>7.998921298</v>
       </c>
       <c r="C385">
         <v>9.1931700000000003</v>
@@ -8225,10 +8225,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>8.2226991999999992</v>
+        <v>11.353065000000001</v>
       </c>
       <c r="B386">
-        <v>6.2633316060000004</v>
+        <v>7.9211115740000002</v>
       </c>
       <c r="C386">
         <v>9.2363049999999998</v>
@@ -8245,10 +8245,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>8.2540406999999991</v>
+        <v>11.383620000000001</v>
       </c>
       <c r="B387">
-        <v>6.2973652830000004</v>
+        <v>7.9312100909999996</v>
       </c>
       <c r="C387">
         <v>9.2794375000000002</v>
@@ -8265,10 +8265,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>8.2853823000000002</v>
+        <v>11.413311999999999</v>
       </c>
       <c r="B388">
-        <v>6.4399811820000004</v>
+        <v>7.8716596750000001</v>
       </c>
       <c r="C388">
         <v>9.3225700000000007</v>
@@ -8285,10 +8285,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>8.3167238000000001</v>
+        <v>11.443004</v>
       </c>
       <c r="B389">
-        <v>6.4375340809999999</v>
+        <v>7.8215429690000002</v>
       </c>
       <c r="C389">
         <v>9.3657050000000002</v>
@@ -8305,10 +8305,10 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>8.3480653999999994</v>
+        <v>11.472693</v>
       </c>
       <c r="B390">
-        <v>6.5538805150000004</v>
+        <v>7.7243711230000001</v>
       </c>
       <c r="C390">
         <v>9.4088379999999994</v>
@@ -8325,10 +8325,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>8.3787021999999993</v>
+        <v>11.502385</v>
       </c>
       <c r="B391">
-        <v>6.6280457019999997</v>
+        <v>7.6825669630000002</v>
       </c>
       <c r="C391">
         <v>9.4519710000000003</v>
@@ -8345,10 +8345,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>8.4093399000000009</v>
+        <v>11.532076999999999</v>
       </c>
       <c r="B392">
-        <v>6.6605285209999998</v>
+        <v>7.6011222160000003</v>
       </c>
       <c r="C392">
         <v>9.4951050000000006</v>
@@ -8365,10 +8365,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>8.4399767000000008</v>
+        <v>11.561769</v>
       </c>
       <c r="B393">
-        <v>6.6725997850000001</v>
+        <v>7.5181796490000004</v>
       </c>
       <c r="C393">
         <v>9.5382379999999998</v>
@@ -8385,10 +8385,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>8.4706144000000005</v>
+        <v>11.59146</v>
       </c>
       <c r="B394">
-        <v>6.6717906859999996</v>
+        <v>7.4825527430000003</v>
       </c>
       <c r="C394">
         <v>9.5813710000000007</v>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>8.5012512000000005</v>
+        <v>11.62115</v>
       </c>
       <c r="B395">
-        <v>6.6805337529999997</v>
+        <v>7.5038755960000003</v>
       </c>
       <c r="C395">
         <v>9.6245039999999999</v>
@@ -8425,10 +8425,10 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>8.5318889999999996</v>
+        <v>11.650842000000001</v>
       </c>
       <c r="B396">
-        <v>6.662318065</v>
+        <v>7.3475091880000001</v>
       </c>
       <c r="C396">
         <v>9.6676389999999994</v>
@@ -8445,10 +8445,10 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>8.5625257000000001</v>
+        <v>11.680533</v>
       </c>
       <c r="B397">
-        <v>6.7181738390000003</v>
+        <v>7.295633971</v>
       </c>
       <c r="C397">
         <v>9.7107709999999994</v>
@@ -8465,10 +8465,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>8.5931625</v>
+        <v>11.710224999999999</v>
       </c>
       <c r="B398">
-        <v>6.738740935</v>
+        <v>7.2432287950000003</v>
       </c>
       <c r="C398">
         <v>9.7539040000000004</v>
@@ -8485,10 +8485,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>8.6238002999999992</v>
+        <v>11.739917</v>
       </c>
       <c r="B399">
-        <v>6.7410020250000002</v>
+        <v>7.2270999480000002</v>
       </c>
       <c r="C399">
         <v>9.7970389999999998</v>
@@ -8505,10 +8505,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>8.6544371000000009</v>
+        <v>11.769607000000001</v>
       </c>
       <c r="B400">
-        <v>6.7243588540000001</v>
+        <v>7.1655701619999999</v>
       </c>
       <c r="C400">
         <v>9.8401720000000008</v>
@@ -8525,10 +8525,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>8.6850748000000006</v>
+        <v>11.799298</v>
       </c>
       <c r="B401">
-        <v>6.6829267799999998</v>
+        <v>7.1174579629999997</v>
       </c>
       <c r="C401">
         <v>9.883305</v>
@@ -8545,10 +8545,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>8.7157116000000006</v>
+        <v>11.828989999999999</v>
       </c>
       <c r="B402">
-        <v>6.7008799740000002</v>
+        <v>7.0899257660000004</v>
       </c>
       <c r="C402">
         <v>9.9264390000000002</v>
@@ -8565,10 +8565,10 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>8.7463484000000005</v>
+        <v>11.858682</v>
       </c>
       <c r="B403">
-        <v>6.7389046390000003</v>
+        <v>6.9664198470000001</v>
       </c>
       <c r="C403">
         <v>9.9695719999999994</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>8.7769861000000002</v>
+        <v>11.888373</v>
       </c>
       <c r="B404">
-        <v>6.7652137239999997</v>
+        <v>7.0512353609999998</v>
       </c>
       <c r="C404">
         <v>10.012705</v>
@@ -8605,10 +8605,10 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>8.8076229000000001</v>
+        <v>11.918431</v>
       </c>
       <c r="B405">
-        <v>6.7748430170000002</v>
+        <v>7.0093362030000002</v>
       </c>
       <c r="C405">
         <v>10.055838</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>8.8382606999999993</v>
+        <v>11.948491000000001</v>
       </c>
       <c r="B406">
-        <v>6.7992709050000002</v>
+        <v>6.9097593140000004</v>
       </c>
       <c r="C406">
         <v>10.098973000000001</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>8.8687439000000001</v>
+        <v>11.978548999999999</v>
       </c>
       <c r="B407">
-        <v>6.8125113859999997</v>
+        <v>6.8889592889999998</v>
       </c>
       <c r="C407">
         <v>10.142105000000001</v>
@@ -8665,10 +8665,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>8.8992281000000002</v>
+        <v>12.008607</v>
       </c>
       <c r="B408">
-        <v>6.7857663439999998</v>
+        <v>6.7997166719999997</v>
       </c>
       <c r="C408">
         <v>10.185238</v>
@@ -8685,10 +8685,10 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>8.9297112999999992</v>
+        <v>12.038667</v>
       </c>
       <c r="B409">
-        <v>6.8127652589999999</v>
+        <v>6.7234035409999997</v>
       </c>
       <c r="C409">
         <v>10.228372999999999</v>
@@ -8705,10 +8705,10 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>8.9601945999999995</v>
+        <v>12.068725000000001</v>
       </c>
       <c r="B410">
-        <v>6.8494553189999996</v>
+        <v>6.6301789930000004</v>
       </c>
       <c r="C410">
         <v>10.271506</v>
@@ -8725,10 +8725,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>8.9906778000000003</v>
+        <v>12.098782999999999</v>
       </c>
       <c r="B411">
-        <v>6.9029277569999996</v>
+        <v>6.6199113140000003</v>
       </c>
       <c r="C411">
         <v>10.314639</v>
@@ -8745,10 +8745,10 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412">
-        <v>9.0211611000000005</v>
+        <v>12.128842000000001</v>
       </c>
       <c r="B412">
-        <v>6.876911765</v>
+        <v>6.596784703</v>
       </c>
       <c r="C412">
         <v>10.357773</v>
@@ -8765,10 +8765,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413">
-        <v>9.0516442999999995</v>
+        <v>12.158899999999999</v>
       </c>
       <c r="B413">
-        <v>6.9038180279999999</v>
+        <v>6.3928132160000004</v>
       </c>
       <c r="C413">
         <v>10.400906000000001</v>
@@ -8785,10 +8785,10 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414">
-        <v>9.0821295000000006</v>
+        <v>12.188958</v>
       </c>
       <c r="B414">
-        <v>6.9072823010000004</v>
+        <v>6.3309588620000001</v>
       </c>
       <c r="C414">
         <v>10.444039</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415">
-        <v>9.1126126999999997</v>
+        <v>12.219016</v>
       </c>
       <c r="B415">
-        <v>6.8761460510000001</v>
+        <v>6.3295292840000004</v>
       </c>
       <c r="C415">
         <v>10.487171999999999</v>
@@ -8825,10 +8825,10 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416">
-        <v>9.1430959999999999</v>
+        <v>12.249076000000001</v>
       </c>
       <c r="B416">
-        <v>6.8980525899999998</v>
+        <v>6.2762884980000004</v>
       </c>
       <c r="C416">
         <v>10.530307000000001</v>
@@ -8845,10 +8845,10 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417">
-        <v>9.1735792000000007</v>
+        <v>12.279134000000001</v>
       </c>
       <c r="B417">
-        <v>6.9462453479999997</v>
+        <v>6.0796174230000002</v>
       </c>
       <c r="C417">
         <v>10.573439</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418">
-        <v>9.2040624999999991</v>
+        <v>12.309191999999999</v>
       </c>
       <c r="B418">
-        <v>6.9501517799999997</v>
+        <v>6.0216597570000001</v>
       </c>
       <c r="C418">
         <v>10.616572</v>
@@ -8885,10 +8885,10 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419">
-        <v>9.2345457</v>
+        <v>12.339252</v>
       </c>
       <c r="B419">
-        <v>7.013739588</v>
+        <v>5.9817722660000001</v>
       </c>
       <c r="C419">
         <v>10.659706999999999</v>
@@ -8905,10 +8905,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420">
-        <v>9.2650290000000002</v>
+        <v>12.369308999999999</v>
       </c>
       <c r="B420">
-        <v>6.9970034200000004</v>
+        <v>5.9597348080000003</v>
       </c>
       <c r="C420">
         <v>10.70284</v>
@@ -8925,10 +8925,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421">
-        <v>9.2955141000000001</v>
+        <v>12.399367</v>
       </c>
       <c r="B421">
-        <v>6.9736449069999997</v>
+        <v>5.8972437790000001</v>
       </c>
       <c r="C421">
         <v>10.745972999999999</v>
@@ -8945,10 +8945,10 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422">
-        <v>9.3259974000000003</v>
+        <v>12.429323999999999</v>
       </c>
       <c r="B422">
-        <v>7.0172157300000002</v>
+        <v>5.8615664660000002</v>
       </c>
       <c r="C422">
         <v>10.789107</v>
@@ -8965,10 +8965,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423">
-        <v>9.3564805999999994</v>
+        <v>12.459281000000001</v>
       </c>
       <c r="B423">
-        <v>7.0151675229999997</v>
+        <v>5.8179517260000004</v>
       </c>
       <c r="C423">
         <v>10.832240000000001</v>
@@ -8985,10 +8985,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424">
-        <v>9.3867940999999995</v>
+        <v>12.489236</v>
       </c>
       <c r="B424">
-        <v>6.9782753560000002</v>
+        <v>5.7624267649999998</v>
       </c>
       <c r="C424">
         <v>10.875373</v>
@@ -9005,10 +9005,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425">
-        <v>9.4171075999999996</v>
+        <v>12.519193</v>
       </c>
       <c r="B425">
-        <v>6.9681714469999996</v>
+        <v>5.6983770299999996</v>
       </c>
       <c r="C425">
         <v>10.918506000000001</v>
@@ -9025,10 +9025,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426">
-        <v>9.4474210999999997</v>
+        <v>12.549149999999999</v>
       </c>
       <c r="B426">
-        <v>6.9722088229999999</v>
+        <v>5.6807386900000001</v>
       </c>
       <c r="C426">
         <v>10.961641</v>
@@ -9045,10 +9045,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427">
-        <v>9.4777345999999998</v>
+        <v>12.579105999999999</v>
       </c>
       <c r="B427">
-        <v>6.95772718</v>
+        <v>5.6339587770000001</v>
       </c>
       <c r="C427">
         <v>11.004773</v>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428">
-        <v>9.5080480999999999</v>
+        <v>12.609061000000001</v>
       </c>
       <c r="B428">
-        <v>6.9723989059999996</v>
+        <v>5.6121789409999998</v>
       </c>
       <c r="C428">
         <v>11.047905999999999</v>
@@ -9085,10 +9085,10 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429">
-        <v>9.5383615000000006</v>
+        <v>12.639018</v>
       </c>
       <c r="B429">
-        <v>7.0117510750000003</v>
+        <v>5.577212254</v>
       </c>
       <c r="C429">
         <v>11.091041000000001</v>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430">
-        <v>9.5686730999999998</v>
+        <v>12.668975</v>
       </c>
       <c r="B430">
-        <v>7.0158686660000003</v>
+        <v>5.5425219800000001</v>
       </c>
       <c r="C430">
         <v>11.134174</v>
@@ -9125,10 +9125,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431">
-        <v>9.5989865999999999</v>
+        <v>12.698931999999999</v>
       </c>
       <c r="B431">
-        <v>7.0147820340000004</v>
+        <v>5.4627034959999996</v>
       </c>
       <c r="C431">
         <v>11.177307000000001</v>
@@ -9145,10 +9145,10 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432">
-        <v>9.6293001</v>
+        <v>12.728887</v>
       </c>
       <c r="B432">
-        <v>7.0338986630000004</v>
+        <v>5.4731420279999998</v>
       </c>
       <c r="C432">
         <v>11.220439000000001</v>
@@ -9165,10 +9165,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433">
-        <v>9.6596136000000001</v>
+        <v>12.758843000000001</v>
       </c>
       <c r="B433">
-        <v>7.2742605530000004</v>
+        <v>5.4861370349999996</v>
       </c>
       <c r="C433">
         <v>11.263574</v>
@@ -9185,10 +9185,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434">
-        <v>9.6899271000000002</v>
+        <v>12.7888</v>
       </c>
       <c r="B434">
-        <v>7.3458910939999997</v>
+        <v>5.7413908420000004</v>
       </c>
       <c r="C434">
         <v>11.306706999999999</v>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435">
-        <v>9.7202406000000003</v>
+        <v>12.818757</v>
       </c>
       <c r="B435">
-        <v>7.5281574530000004</v>
+        <v>5.5976213179999998</v>
       </c>
       <c r="C435">
         <v>11.34984</v>
@@ -9225,10 +9225,10 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436">
-        <v>9.7505541000000004</v>
+        <v>12.848712000000001</v>
       </c>
       <c r="B436">
-        <v>7.6222188190000004</v>
+        <v>5.57159169</v>
       </c>
       <c r="C436">
         <v>11.392975</v>
@@ -9245,10 +9245,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437">
-        <v>9.7808676000000006</v>
+        <v>12.878669</v>
       </c>
       <c r="B437">
-        <v>7.6824352859999996</v>
+        <v>5.582072396</v>
       </c>
       <c r="C437">
         <v>11.436107</v>
@@ -9265,10 +9265,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438">
-        <v>9.8111811000000007</v>
+        <v>12.908659999999999</v>
       </c>
       <c r="B438">
-        <v>7.7381045860000004</v>
+        <v>5.7598530820000002</v>
       </c>
       <c r="C438">
         <v>11.479240000000001</v>
@@ -9285,10 +9285,10 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439">
-        <v>9.8414946000000008</v>
+        <v>12.938651</v>
       </c>
       <c r="B439">
-        <v>7.7797775720000004</v>
+        <v>5.6999447080000003</v>
       </c>
       <c r="C439">
         <v>11.522375</v>
@@ -9305,10 +9305,10 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440">
-        <v>9.8718081000000009</v>
+        <v>12.968640000000001</v>
       </c>
       <c r="B440">
-        <v>7.8088272520000004</v>
+        <v>5.5418848279999997</v>
       </c>
       <c r="C440">
         <v>11.565507999999999</v>
@@ -9325,10 +9325,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441">
-        <v>9.9017859000000001</v>
+        <v>12.998631</v>
       </c>
       <c r="B441">
-        <v>7.8248377739999997</v>
+        <v>5.6091869110000001</v>
       </c>
       <c r="C441">
         <v>11.608641</v>
@@ -9345,10 +9345,10 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442">
-        <v>9.9317616999999991</v>
+        <v>13.028623</v>
       </c>
       <c r="B442">
-        <v>7.8518758030000004</v>
+        <v>5.6591111969999996</v>
       </c>
       <c r="C442">
         <v>11.651773</v>
@@ -9365,10 +9365,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443">
-        <v>9.9617395000000002</v>
+        <v>13.058614</v>
       </c>
       <c r="B443">
-        <v>7.8187524420000001</v>
+        <v>5.5308293050000001</v>
       </c>
       <c r="C443">
         <v>11.694908</v>
@@ -9385,10 +9385,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444">
-        <v>9.9917154000000004</v>
+        <v>13.088604999999999</v>
       </c>
       <c r="B444">
-        <v>7.7933921829999999</v>
+        <v>5.4980164440000001</v>
       </c>
       <c r="C444">
         <v>11.738041000000001</v>
@@ -9405,10 +9405,10 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445">
-        <v>10.021693000000001</v>
+        <v>13.118596</v>
       </c>
       <c r="B445">
-        <v>7.8445357319999998</v>
+        <v>5.3741444649999996</v>
       </c>
       <c r="C445">
         <v>11.781174</v>
@@ -9425,10 +9425,10 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446">
-        <v>10.051669</v>
+        <v>13.148585000000001</v>
       </c>
       <c r="B446">
-        <v>7.8459820069999999</v>
+        <v>5.4977175960000002</v>
       </c>
       <c r="C446">
         <v>11.824309</v>
@@ -9445,10 +9445,10 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447">
-        <v>10.081647</v>
+        <v>13.178576</v>
       </c>
       <c r="B447">
-        <v>7.881245904</v>
+        <v>5.3220312109999997</v>
       </c>
       <c r="C447">
         <v>11.867440999999999</v>
@@ -9465,10 +9465,10 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448">
-        <v>10.111625</v>
+        <v>13.208568</v>
       </c>
       <c r="B448">
-        <v>7.8675420540000003</v>
+        <v>5.330658605</v>
       </c>
       <c r="C448">
         <v>11.910574</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449">
-        <v>10.141601</v>
+        <v>13.238559</v>
       </c>
       <c r="B449">
-        <v>7.8963964950000003</v>
+        <v>4.9085452910000003</v>
       </c>
       <c r="C449">
         <v>11.953709</v>
@@ -9505,10 +9505,10 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450">
-        <v>10.171578</v>
+        <v>13.268549999999999</v>
       </c>
       <c r="B450">
-        <v>7.9106819660000003</v>
+        <v>4.9125012210000003</v>
       </c>
       <c r="C450">
         <v>11.996841999999999</v>
@@ -9525,10 +9525,10 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451">
-        <v>10.201554</v>
+        <v>13.298539</v>
       </c>
       <c r="B451">
-        <v>7.8558697909999999</v>
+        <v>4.986419776</v>
       </c>
       <c r="C451">
         <v>12.039975</v>
@@ -9545,10 +9545,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452">
-        <v>10.231532</v>
+        <v>13.328530000000001</v>
       </c>
       <c r="B452">
-        <v>7.9694502419999997</v>
+        <v>4.8931565289999996</v>
       </c>
       <c r="C452">
         <v>12.083107</v>
@@ -9565,10 +9565,10 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453">
-        <v>10.261507999999999</v>
+        <v>13.358521</v>
       </c>
       <c r="B453">
-        <v>7.9573134469999998</v>
+        <v>4.8943483680000002</v>
       </c>
       <c r="C453">
         <v>12.126242</v>
@@ -9585,10 +9585,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454">
-        <v>10.291486000000001</v>
+        <v>13.388513</v>
       </c>
       <c r="B454">
-        <v>8.0313894050000005</v>
+        <v>4.8731535910000003</v>
       </c>
       <c r="C454">
         <v>12.169375</v>
@@ -9605,10 +9605,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455">
-        <v>10.321462</v>
+        <v>13.418632000000001</v>
       </c>
       <c r="B455">
-        <v>8.0262479150000008</v>
+        <v>4.8263118260000004</v>
       </c>
       <c r="C455">
         <v>12.212508</v>
@@ -9625,10 +9625,10 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456">
-        <v>10.351438999999999</v>
+        <v>13.448748999999999</v>
       </c>
       <c r="B456">
-        <v>8.1139947380000006</v>
+        <v>4.7654342600000001</v>
       </c>
       <c r="C456">
         <v>12.255642999999999</v>
@@ -9645,10 +9645,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457">
-        <v>10.381600000000001</v>
+        <v>13.478868</v>
       </c>
       <c r="B457">
-        <v>8.0950511850000009</v>
+        <v>4.7128394709999997</v>
       </c>
       <c r="C457">
         <v>12.298774999999999</v>
@@ -9665,10 +9665,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458">
-        <v>10.411759</v>
+        <v>13.508984999999999</v>
       </c>
       <c r="B458">
-        <v>8.1307565969999995</v>
+        <v>4.5978577090000003</v>
       </c>
       <c r="C458">
         <v>12.341908</v>
@@ -9685,10 +9685,10 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459">
-        <v>10.44192</v>
+        <v>13.539104</v>
       </c>
       <c r="B459">
-        <v>8.1983935339999991</v>
+        <v>4.6664286879999999</v>
       </c>
       <c r="C459">
         <v>12.385043</v>
@@ -9705,10 +9705,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460">
-        <v>10.472080999999999</v>
+        <v>13.569221000000001</v>
       </c>
       <c r="B460">
-        <v>8.2129337969999998</v>
+        <v>4.6400789769999999</v>
       </c>
       <c r="C460">
         <v>12.428176000000001</v>
@@ -9725,10 +9725,10 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461">
-        <v>10.502242000000001</v>
+        <v>13.599339000000001</v>
       </c>
       <c r="B461">
-        <v>8.2169418959999998</v>
+        <v>4.5219167889999996</v>
       </c>
       <c r="C461">
         <v>12.471309</v>
@@ -9745,10 +9745,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462">
-        <v>10.532401</v>
+        <v>13.629458</v>
       </c>
       <c r="B462">
-        <v>8.2462578129999997</v>
+        <v>4.4821858929999996</v>
       </c>
       <c r="C462">
         <v>12.514441</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463">
-        <v>10.562562</v>
+        <v>13.659575</v>
       </c>
       <c r="B463">
-        <v>8.2560304779999996</v>
+        <v>4.4886929809999998</v>
       </c>
       <c r="C463">
         <v>12.557575999999999</v>
@@ -9785,10 +9785,10 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464">
-        <v>10.592722999999999</v>
+        <v>13.689693999999999</v>
       </c>
       <c r="B464">
-        <v>8.2395298429999997</v>
+        <v>4.4850710869999997</v>
       </c>
       <c r="C464">
         <v>12.600709</v>
@@ -9805,10 +9805,10 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465">
-        <v>10.622882000000001</v>
+        <v>13.719811</v>
       </c>
       <c r="B465">
-        <v>8.2196846790000002</v>
+        <v>4.4714697829999999</v>
       </c>
       <c r="C465">
         <v>12.643841999999999</v>
@@ -9825,10 +9825,10 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466">
-        <v>10.653043</v>
+        <v>13.749930000000001</v>
       </c>
       <c r="B466">
-        <v>8.2487198060000004</v>
+        <v>4.393726762</v>
       </c>
       <c r="C466">
         <v>12.686977000000001</v>
@@ -9845,10 +9845,10 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467">
-        <v>10.683204</v>
+        <v>13.780047</v>
       </c>
       <c r="B467">
-        <v>8.28927221</v>
+        <v>4.4563736829999998</v>
       </c>
       <c r="C467">
         <v>12.730109000000001</v>
@@ -9865,10 +9865,10 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468">
-        <v>10.713362999999999</v>
+        <v>13.810166000000001</v>
       </c>
       <c r="B468">
-        <v>8.329562803</v>
+        <v>4.327985183</v>
       </c>
       <c r="C468">
         <v>12.773242</v>
@@ -9885,10 +9885,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469">
-        <v>10.743524000000001</v>
+        <v>13.840285</v>
       </c>
       <c r="B469">
-        <v>8.3089205859999993</v>
+        <v>4.3322298769999996</v>
       </c>
       <c r="C469">
         <v>12.816376999999999</v>
@@ -9905,10 +9905,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470">
-        <v>10.773685</v>
+        <v>13.870402</v>
       </c>
       <c r="B470">
-        <v>8.2684365300000007</v>
+        <v>4.3673752730000004</v>
       </c>
       <c r="C470">
         <v>12.85951</v>
@@ -9925,10 +9925,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471">
-        <v>10.803845000000001</v>
+        <v>13.900520999999999</v>
       </c>
       <c r="B471">
-        <v>8.2548655439999994</v>
+        <v>4.2847707819999998</v>
       </c>
       <c r="C471">
         <v>12.902642999999999</v>
@@ -9945,10 +9945,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472">
-        <v>10.834004</v>
+        <v>13.931565000000001</v>
       </c>
       <c r="B472">
-        <v>8.2800034839999999</v>
+        <v>4.170472105</v>
       </c>
       <c r="C472">
         <v>12.945774999999999</v>
@@ -9965,10 +9965,10 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473">
-        <v>10.864165</v>
+        <v>13.962611000000001</v>
       </c>
       <c r="B473">
-        <v>8.2824651009999997</v>
+        <v>4.0683555880000002</v>
       </c>
       <c r="C473">
         <v>12.988910000000001</v>
@@ -9985,10 +9985,10 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474">
-        <v>10.894721000000001</v>
+        <v>13.993655</v>
       </c>
       <c r="B474">
-        <v>8.2976632880000007</v>
+        <v>3.9176119530000002</v>
       </c>
       <c r="C474">
         <v>13.032043</v>
@@ -10005,10 +10005,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475">
-        <v>10.925276999999999</v>
+        <v>14.024699</v>
       </c>
       <c r="B475">
-        <v>8.2782233610000002</v>
+        <v>3.878825124</v>
       </c>
       <c r="C475">
         <v>13.075176000000001</v>
@@ -10025,10 +10025,10 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476">
-        <v>10.955833999999999</v>
+        <v>14.055743</v>
       </c>
       <c r="B476">
-        <v>8.2657183990000007</v>
+        <v>3.6982407240000001</v>
       </c>
       <c r="C476">
         <v>13.118311</v>
@@ -10045,10 +10045,10 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477">
-        <v>10.98639</v>
+        <v>14.086789</v>
       </c>
       <c r="B477">
-        <v>8.3249618289999994</v>
+        <v>3.9369331019999998</v>
       </c>
       <c r="C477">
         <v>13.161443</v>
@@ -10065,10 +10065,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478">
-        <v>11.016946000000001</v>
+        <v>14.117832999999999</v>
       </c>
       <c r="B478">
-        <v>8.1807133029999992</v>
+        <v>3.6180050559999999</v>
       </c>
       <c r="C478">
         <v>13.204575999999999</v>
@@ -10085,10 +10085,10 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479">
-        <v>11.047502</v>
+        <v>14.148877000000001</v>
       </c>
       <c r="B479">
-        <v>8.1785564659999999</v>
+        <v>3.669685834</v>
       </c>
       <c r="C479">
         <v>13.247711000000001</v>
@@ -10105,10 +10105,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480">
-        <v>11.078059</v>
+        <v>14.179921</v>
       </c>
       <c r="B480">
-        <v>8.1818846539999992</v>
+        <v>3.608577602</v>
       </c>
       <c r="C480">
         <v>13.290844</v>
@@ -10125,10 +10125,10 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481">
-        <v>11.108615</v>
+        <v>14.210967</v>
       </c>
       <c r="B481">
-        <v>8.1802265250000001</v>
+        <v>3.641536286</v>
       </c>
       <c r="C481">
         <v>13.333977000000001</v>
@@ -10145,10 +10145,10 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482">
-        <v>11.139170999999999</v>
+        <v>14.242011</v>
       </c>
       <c r="B482">
-        <v>8.1268456090000001</v>
+        <v>3.7021117619999999</v>
       </c>
       <c r="C482">
         <v>13.377109000000001</v>
@@ -10165,10 +10165,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483">
-        <v>11.169726000000001</v>
+        <v>14.273054999999999</v>
       </c>
       <c r="B483">
-        <v>8.1684641360000008</v>
+        <v>3.6057004039999998</v>
       </c>
       <c r="C483">
         <v>13.420244</v>
@@ -10185,10 +10185,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484">
-        <v>11.200284</v>
+        <v>14.304100999999999</v>
       </c>
       <c r="B484">
-        <v>8.0995755070000008</v>
+        <v>3.7123551899999998</v>
       </c>
       <c r="C484">
         <v>13.463376999999999</v>
@@ -10205,10 +10205,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485">
-        <v>11.230840000000001</v>
+        <v>14.335145000000001</v>
       </c>
       <c r="B485">
-        <v>8.1157455380000005</v>
+        <v>3.511902702</v>
       </c>
       <c r="C485">
         <v>13.50651</v>
@@ -10225,10 +10225,10 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486">
-        <v>11.261395</v>
+        <v>14.366189</v>
       </c>
       <c r="B486">
-        <v>8.0810794250000004</v>
+        <v>3.5251973840000002</v>
       </c>
       <c r="C486">
         <v>13.549645</v>
@@ -10245,10 +10245,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487">
-        <v>11.291950999999999</v>
+        <v>14.397233</v>
       </c>
       <c r="B487">
-        <v>8.0272817439999997</v>
+        <v>3.4870775389999999</v>
       </c>
       <c r="C487">
         <v>13.592777</v>
@@ -10265,10 +10265,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488">
-        <v>11.322509</v>
+        <v>14.428279</v>
       </c>
       <c r="B488">
-        <v>7.998921298</v>
+        <v>3.506872456</v>
       </c>
       <c r="C488">
         <v>13.635910000000001</v>
@@ -10285,10 +10285,10 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489">
-        <v>11.353065000000001</v>
+        <v>14.459334</v>
       </c>
       <c r="B489">
-        <v>7.9211115740000002</v>
+        <v>3.5867961149999998</v>
       </c>
       <c r="C489">
         <v>13.679045</v>
@@ -10305,10 +10305,10 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490">
-        <v>11.383620000000001</v>
+        <v>14.49039</v>
       </c>
       <c r="B490">
-        <v>7.9312100909999996</v>
+        <v>3.521288014</v>
       </c>
       <c r="C490">
         <v>13.722178</v>
@@ -10325,10 +10325,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491">
-        <v>11.413311999999999</v>
+        <v>14.521445</v>
       </c>
       <c r="B491">
-        <v>7.8716596750000001</v>
+        <v>3.489365608</v>
       </c>
       <c r="C491">
         <v>13.765311000000001</v>
@@ -10345,10 +10345,10 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492">
-        <v>11.443004</v>
+        <v>14.552500999999999</v>
       </c>
       <c r="B492">
-        <v>7.8215429690000002</v>
+        <v>3.4414782740000001</v>
       </c>
       <c r="C492">
         <v>13.808443</v>
@@ -10365,10 +10365,10 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493">
-        <v>11.472693</v>
+        <v>14.583556</v>
       </c>
       <c r="B493">
-        <v>7.7243711230000001</v>
+        <v>3.5322096329999999</v>
       </c>
       <c r="C493">
         <v>13.851578</v>
@@ -10385,10 +10385,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494">
-        <v>11.502385</v>
+        <v>14.614611999999999</v>
       </c>
       <c r="B494">
-        <v>7.6825669630000002</v>
+        <v>3.4114747369999998</v>
       </c>
       <c r="C494">
         <v>13.894710999999999</v>
@@ -10405,10 +10405,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495">
-        <v>11.532076999999999</v>
+        <v>14.645667</v>
       </c>
       <c r="B495">
-        <v>7.6011222160000003</v>
+        <v>3.391352929</v>
       </c>
       <c r="C495">
         <v>13.937844</v>
@@ -10425,10 +10425,10 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496">
-        <v>11.561769</v>
+        <v>14.676723000000001</v>
       </c>
       <c r="B496">
-        <v>7.5181796490000004</v>
+        <v>3.3996722880000001</v>
       </c>
       <c r="C496">
         <v>13.980979</v>
@@ -10445,10 +10445,10 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497">
-        <v>11.59146</v>
+        <v>14.707777999999999</v>
       </c>
       <c r="B497">
-        <v>7.4825527430000003</v>
+        <v>3.4789276490000001</v>
       </c>
       <c r="C497">
         <v>14.024111</v>
@@ -10465,10 +10465,10 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498">
-        <v>11.62115</v>
+        <v>14.738833</v>
       </c>
       <c r="B498">
-        <v>7.5038755960000003</v>
+        <v>3.3468566599999998</v>
       </c>
       <c r="C498">
         <v>14.067244000000001</v>
@@ -10485,10 +10485,10 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499">
-        <v>11.650842000000001</v>
+        <v>14.769888999999999</v>
       </c>
       <c r="B499">
-        <v>7.3475091880000001</v>
+        <v>3.3602699029999998</v>
       </c>
       <c r="C499">
         <v>14.110379</v>
@@ -10505,10 +10505,10 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500">
-        <v>11.680533</v>
+        <v>14.800943999999999</v>
       </c>
       <c r="B500">
-        <v>7.295633971</v>
+        <v>3.44961853</v>
       </c>
       <c r="C500">
         <v>14.153511999999999</v>
@@ -10525,10 +10525,10 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501">
-        <v>11.710224999999999</v>
+        <v>14.832000000000001</v>
       </c>
       <c r="B501">
-        <v>7.2432287950000003</v>
+        <v>3.3875967490000001</v>
       </c>
       <c r="C501">
         <v>14.196645</v>
@@ -10545,10 +10545,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502">
-        <v>11.739917</v>
+        <v>14.863054999999999</v>
       </c>
       <c r="B502">
-        <v>7.2270999480000002</v>
+        <v>3.4254147029999999</v>
       </c>
       <c r="C502">
         <v>14.239777</v>
@@ -10565,10 +10565,10 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503">
-        <v>11.769607000000001</v>
+        <v>14.894111000000001</v>
       </c>
       <c r="B503">
-        <v>7.1655701619999999</v>
+        <v>3.35845642</v>
       </c>
       <c r="C503">
         <v>14.282912</v>
@@ -10585,10 +10585,10 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504">
-        <v>11.799298</v>
+        <v>14.925166000000001</v>
       </c>
       <c r="B504">
-        <v>7.1174579629999997</v>
+        <v>3.2915857210000001</v>
       </c>
       <c r="C504">
         <v>14.326045000000001</v>
@@ -10605,10 +10605,10 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505">
-        <v>11.828989999999999</v>
+        <v>14.956868</v>
       </c>
       <c r="B505">
-        <v>7.0899257660000004</v>
+        <v>3.2572029969999998</v>
       </c>
       <c r="C505">
         <v>14.369178</v>
@@ -10625,10 +10625,10 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506">
-        <v>11.858682</v>
+        <v>14.988569999999999</v>
       </c>
       <c r="B506">
-        <v>6.9664198470000001</v>
+        <v>3.4014142289999998</v>
       </c>
       <c r="C506">
         <v>14.412312500000001</v>
@@ -10645,10 +10645,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507">
-        <v>11.888373</v>
+        <v>15.020272</v>
       </c>
       <c r="B507">
-        <v>7.0512353609999998</v>
+        <v>3.3326099579999999</v>
       </c>
       <c r="C507">
         <v>14.455444999999999</v>
@@ -10665,10 +10665,10 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508">
-        <v>11.918431</v>
+        <v>15.051976</v>
       </c>
       <c r="B508">
-        <v>7.0093362030000002</v>
+        <v>3.3973092770000002</v>
       </c>
       <c r="C508">
         <v>14.498578</v>
@@ -10685,10 +10685,10 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509">
-        <v>11.948491000000001</v>
+        <v>15.083678000000001</v>
       </c>
       <c r="B509">
-        <v>6.9097593140000004</v>
+        <v>3.2720945850000001</v>
       </c>
       <c r="C509">
         <v>14.541713</v>
@@ -10705,10 +10705,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510">
-        <v>11.978548999999999</v>
+        <v>15.11538</v>
       </c>
       <c r="B510">
-        <v>6.8889592889999998</v>
+        <v>3.2816223980000001</v>
       </c>
       <c r="C510">
         <v>14.584846000000001</v>
@@ -10725,10 +10725,10 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511">
-        <v>12.008607</v>
+        <v>15.147081999999999</v>
       </c>
       <c r="B511">
-        <v>6.7997166719999997</v>
+        <v>3.2814797960000002</v>
       </c>
       <c r="C511">
         <v>14.627979</v>
@@ -10745,10 +10745,10 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512">
-        <v>12.038667</v>
+        <v>15.178784</v>
       </c>
       <c r="B512">
-        <v>6.7234035409999997</v>
+        <v>3.3130346589999999</v>
       </c>
       <c r="C512">
         <v>14.671111</v>
@@ -10765,10 +10765,10 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513">
-        <v>12.068725000000001</v>
+        <v>15.210486</v>
       </c>
       <c r="B513">
-        <v>6.6301789930000004</v>
+        <v>3.2409700030000002</v>
       </c>
       <c r="C513">
         <v>14.714245999999999</v>
@@ -10785,10 +10785,10 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514">
-        <v>12.098782999999999</v>
+        <v>15.242190000000001</v>
       </c>
       <c r="B514">
-        <v>6.6199113140000003</v>
+        <v>3.2909674409999998</v>
       </c>
       <c r="E514">
         <v>5.1201198699999999</v>
@@ -10799,10 +10799,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515">
-        <v>12.128842000000001</v>
+        <v>15.273892</v>
       </c>
       <c r="B515">
-        <v>6.596784703</v>
+        <v>3.298985058</v>
       </c>
       <c r="E515">
         <v>5.1300891599999998</v>
@@ -10813,10 +10813,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516">
-        <v>12.158899999999999</v>
+        <v>15.305593999999999</v>
       </c>
       <c r="B516">
-        <v>6.3928132160000004</v>
+        <v>3.372656208</v>
       </c>
       <c r="E516">
         <v>5.1400574499999996</v>
@@ -10827,10 +10827,10 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517">
-        <v>12.188958</v>
+        <v>15.337296</v>
       </c>
       <c r="B517">
-        <v>6.3309588620000001</v>
+        <v>3.5104085170000001</v>
       </c>
       <c r="E517">
         <v>5.1500247200000002</v>
@@ -10841,10 +10841,10 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518">
-        <v>12.219016</v>
+        <v>15.368999000000001</v>
       </c>
       <c r="B518">
-        <v>6.3295292840000004</v>
+        <v>3.4476331880000002</v>
       </c>
       <c r="E518">
         <v>5.1602077</v>
@@ -10855,10 +10855,10 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519">
-        <v>12.249076000000001</v>
+        <v>15.400701</v>
       </c>
       <c r="B519">
-        <v>6.2762884980000004</v>
+        <v>3.5070051480000002</v>
       </c>
       <c r="E519">
         <v>5.1701730899999996</v>
@@ -10869,10 +10869,10 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520">
-        <v>12.279134000000001</v>
+        <v>15.432403000000001</v>
       </c>
       <c r="B520">
-        <v>6.0796174230000002</v>
+        <v>3.3447184179999998</v>
       </c>
       <c r="E520">
         <v>5.1801375099999998</v>
@@ -10883,10 +10883,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521">
-        <v>12.309191999999999</v>
+        <v>15.464672999999999</v>
       </c>
       <c r="B521">
-        <v>6.0216597570000001</v>
+        <v>3.410289884</v>
       </c>
       <c r="E521">
         <v>5.1901010300000001</v>
@@ -10897,10 +10897,10 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522">
-        <v>12.339252</v>
+        <v>15.496945</v>
       </c>
       <c r="B522">
-        <v>5.9817722660000001</v>
+        <v>3.4615292769999999</v>
       </c>
       <c r="E522">
         <v>5.2000636299999998</v>
@@ -10911,10 +10911,10 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523">
-        <v>12.369308999999999</v>
+        <v>15.529216</v>
       </c>
       <c r="B523">
-        <v>5.9597348080000003</v>
+        <v>3.2705679779999999</v>
       </c>
       <c r="E523">
         <v>5.2100253199999997</v>
@@ -10925,10 +10925,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524">
-        <v>12.399367</v>
+        <v>15.561486</v>
       </c>
       <c r="B524">
-        <v>5.8972437790000001</v>
+        <v>3.4847254400000001</v>
       </c>
       <c r="E524">
         <v>5.2202026699999999</v>
@@ -10939,10 +10939,10 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525">
-        <v>12.429323999999999</v>
+        <v>15.593757</v>
       </c>
       <c r="B525">
-        <v>5.8615664660000002</v>
+        <v>3.4769717519999999</v>
       </c>
       <c r="E525">
         <v>5.2301625300000003</v>
@@ -10953,10 +10953,10 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526">
-        <v>12.459281000000001</v>
+        <v>15.626029000000001</v>
       </c>
       <c r="B526">
-        <v>5.8179517260000004</v>
+        <v>3.3023886220000001</v>
       </c>
       <c r="E526">
         <v>5.2401215299999997</v>
@@ -10967,10 +10967,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527">
-        <v>12.489236</v>
+        <v>15.658299</v>
       </c>
       <c r="B527">
-        <v>5.7624267649999998</v>
+        <v>3.4571035139999999</v>
       </c>
       <c r="E527">
         <v>5.2500795599999996</v>
@@ -10981,10 +10981,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528">
-        <v>12.519193</v>
+        <v>15.690569999999999</v>
       </c>
       <c r="B528">
-        <v>5.6983770299999996</v>
+        <v>3.3993689030000001</v>
       </c>
       <c r="E528">
         <v>5.2600366699999999</v>
@@ -10995,10 +10995,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529">
-        <v>12.549149999999999</v>
+        <v>15.72284</v>
       </c>
       <c r="B529">
-        <v>5.6807386900000001</v>
+        <v>3.3208006299999999</v>
       </c>
       <c r="E529">
         <v>5.2702093200000002</v>
@@ -11009,10 +11009,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530">
-        <v>12.579105999999999</v>
+        <v>15.755113</v>
       </c>
       <c r="B530">
-        <v>5.6339587770000001</v>
+        <v>3.395612973</v>
       </c>
       <c r="E530">
         <v>5.2801645300000004</v>
@@ -11023,10 +11023,10 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531">
-        <v>12.609061000000001</v>
+        <v>15.787383</v>
       </c>
       <c r="B531">
-        <v>5.6121789409999998</v>
+        <v>3.3634941340000002</v>
       </c>
       <c r="E531">
         <v>5.2901188000000001</v>
@@ -11037,10 +11037,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532">
-        <v>12.639018</v>
+        <v>15.819654</v>
       </c>
       <c r="B532">
-        <v>5.577212254</v>
+        <v>3.2997677209999998</v>
       </c>
       <c r="E532">
         <v>5.3000718999999998</v>
@@ -11051,10 +11051,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533">
-        <v>12.668975</v>
+        <v>15.851926000000001</v>
       </c>
       <c r="B533">
-        <v>5.5425219800000001</v>
+        <v>3.419877246</v>
       </c>
       <c r="E533">
         <v>5.3100249899999996</v>
@@ -11065,10 +11065,10 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534">
-        <v>12.698931999999999</v>
+        <v>15.884195999999999</v>
       </c>
       <c r="B534">
-        <v>5.4627034959999996</v>
+        <v>3.3963604900000002</v>
       </c>
       <c r="E534">
         <v>5.3201936200000004</v>
@@ -11079,10 +11079,10 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535">
-        <v>12.728887</v>
+        <v>15.916467000000001</v>
       </c>
       <c r="B535">
-        <v>5.4731420279999998</v>
+        <v>3.4195173240000001</v>
       </c>
       <c r="E535">
         <v>5.3301450900000003</v>
@@ -11093,10 +11093,10 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536">
-        <v>12.758843000000001</v>
+        <v>15.948736999999999</v>
       </c>
       <c r="B536">
-        <v>5.4861370349999996</v>
+        <v>3.5180146429999999</v>
       </c>
       <c r="E536">
         <v>5.3400957</v>
@@ -11107,10 +11107,10 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537">
-        <v>12.7888</v>
+        <v>15.981396999999999</v>
       </c>
       <c r="B537">
-        <v>5.7413908420000004</v>
+        <v>3.5297881210000002</v>
       </c>
       <c r="E537">
         <v>5.3500452100000002</v>
@@ -11121,10 +11121,10 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538">
-        <v>12.818757</v>
+        <v>16.014057000000001</v>
       </c>
       <c r="B538">
-        <v>5.5976213179999998</v>
+        <v>3.4365134639999999</v>
       </c>
       <c r="E538">
         <v>5.3602099499999998</v>
@@ -11135,10 +11135,10 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539">
-        <v>12.848712000000001</v>
+        <v>16.046719</v>
       </c>
       <c r="B539">
-        <v>5.57159169</v>
+        <v>3.3694721329999999</v>
       </c>
       <c r="E539">
         <v>5.3701574799999996</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540">
-        <v>12.878669</v>
+        <v>16.079376</v>
       </c>
       <c r="B540">
-        <v>5.582072396</v>
+        <v>3.4530761230000002</v>
       </c>
       <c r="E540">
         <v>5.3801035600000002</v>
@@ -11163,10 +11163,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541">
-        <v>12.908659999999999</v>
+        <v>16.112037999999998</v>
       </c>
       <c r="B541">
-        <v>5.7598530820000002</v>
+        <v>3.4747048280000001</v>
       </c>
       <c r="E541">
         <v>5.3900492</v>
@@ -11177,10 +11177,10 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542">
-        <v>12.938651</v>
+        <v>16.144694999999999</v>
       </c>
       <c r="B542">
-        <v>5.6999447080000003</v>
+        <v>3.461956008</v>
       </c>
       <c r="E542">
         <v>5.4002087799999998</v>
@@ -11191,10 +11191,10 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543">
-        <v>12.968640000000001</v>
+        <v>16.177357000000001</v>
       </c>
       <c r="B543">
-        <v>5.5418848279999997</v>
+        <v>3.3846943139999999</v>
       </c>
       <c r="E543">
         <v>5.4101499899999999</v>
@@ -11205,10 +11205,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544">
-        <v>12.998631</v>
+        <v>16.210018000000002</v>
       </c>
       <c r="B544">
-        <v>5.6091869110000001</v>
+        <v>3.3976129570000002</v>
       </c>
       <c r="E544">
         <v>5.4200899500000004</v>
@@ -11219,10 +11219,10 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545">
-        <v>13.028623</v>
+        <v>16.242675999999999</v>
       </c>
       <c r="B545">
-        <v>5.6591111969999996</v>
+        <v>3.4930344689999999</v>
       </c>
       <c r="E545">
         <v>5.4300292499999996</v>
@@ -11233,10 +11233,10 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546">
-        <v>13.058614</v>
+        <v>16.275337</v>
       </c>
       <c r="B546">
-        <v>5.5308293050000001</v>
+        <v>3.5190026149999998</v>
       </c>
       <c r="E546">
         <v>5.4401836899999996</v>
@@ -11247,10 +11247,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547">
-        <v>13.088604999999999</v>
+        <v>16.307998999999999</v>
       </c>
       <c r="B547">
-        <v>5.4980164440000001</v>
+        <v>3.5587437770000001</v>
       </c>
       <c r="E547">
         <v>5.4501211300000003</v>
@@ -11261,10 +11261,10 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548">
-        <v>13.118596</v>
+        <v>16.340655999999999</v>
       </c>
       <c r="B548">
-        <v>5.3741444649999996</v>
+        <v>3.4014225140000001</v>
       </c>
       <c r="E548">
         <v>5.4600575899999999</v>
@@ -11275,10 +11275,10 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549">
-        <v>13.148585000000001</v>
+        <v>16.373318000000001</v>
       </c>
       <c r="B549">
-        <v>5.4977175960000002</v>
+        <v>3.5121677060000001</v>
       </c>
       <c r="E549">
         <v>5.4702091399999997</v>
@@ -11289,10 +11289,10 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550">
-        <v>13.178576</v>
+        <v>16.405975000000002</v>
       </c>
       <c r="B550">
-        <v>5.3220312109999997</v>
+        <v>3.5267354759999998</v>
       </c>
       <c r="E550">
         <v>5.4801437200000001</v>
@@ -11302,12 +11302,6 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A551">
-        <v>13.208568</v>
-      </c>
-      <c r="B551">
-        <v>5.330658605</v>
-      </c>
       <c r="E551">
         <v>5.4900773799999998</v>
       </c>
@@ -11316,12 +11310,6 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A552">
-        <v>13.238559</v>
-      </c>
-      <c r="B552">
-        <v>4.9085452910000003</v>
-      </c>
       <c r="E552">
         <v>5.5000100500000002</v>
       </c>
@@ -11330,12 +11318,6 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A553">
-        <v>13.268549999999999</v>
-      </c>
-      <c r="B553">
-        <v>4.9125012210000003</v>
-      </c>
       <c r="E553">
         <v>5.51015766</v>
       </c>
@@ -11344,12 +11326,6 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A554">
-        <v>13.298539</v>
-      </c>
-      <c r="B554">
-        <v>4.986419776</v>
-      </c>
       <c r="E554">
         <v>5.5200883799999998</v>
       </c>
@@ -11358,12 +11334,6 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A555">
-        <v>13.328530000000001</v>
-      </c>
-      <c r="B555">
-        <v>4.8931565289999996</v>
-      </c>
       <c r="E555">
         <v>5.5300181300000002</v>
       </c>
@@ -11372,12 +11342,6 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A556">
-        <v>13.358521</v>
-      </c>
-      <c r="B556">
-        <v>4.8943483680000002</v>
-      </c>
       <c r="E556">
         <v>5.5401627199999997</v>
       </c>
@@ -11386,12 +11350,6 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A557">
-        <v>13.388513</v>
-      </c>
-      <c r="B557">
-        <v>4.8731535910000003</v>
-      </c>
       <c r="E557">
         <v>5.5500904699999998</v>
       </c>
@@ -11400,12 +11358,6 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A558">
-        <v>13.418632000000001</v>
-      </c>
-      <c r="B558">
-        <v>4.8263118260000004</v>
-      </c>
       <c r="E558">
         <v>5.5600173499999999</v>
       </c>
@@ -11414,12 +11366,6 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A559">
-        <v>13.448748999999999</v>
-      </c>
-      <c r="B559">
-        <v>4.7654342600000001</v>
-      </c>
       <c r="E559">
         <v>5.5701590400000001</v>
       </c>
@@ -11428,12 +11374,6 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A560">
-        <v>13.478868</v>
-      </c>
-      <c r="B560">
-        <v>4.7128394709999997</v>
-      </c>
       <c r="E560">
         <v>5.5800840200000001</v>
       </c>
@@ -11441,13 +11381,7 @@
         <v>158.30616499999999</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A561">
-        <v>13.508984999999999</v>
-      </c>
-      <c r="B561">
-        <v>4.5978577090000003</v>
-      </c>
+    <row r="561" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E561">
         <v>5.5900081699999999</v>
       </c>
@@ -11455,13 +11389,7 @@
         <v>159.69315</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A562">
-        <v>13.539104</v>
-      </c>
-      <c r="B562">
-        <v>4.6664286879999999</v>
-      </c>
+    <row r="562" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E562">
         <v>5.6001472799999998</v>
       </c>
@@ -11469,13 +11397,7 @@
         <v>161.046852</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A563">
-        <v>13.569221000000001</v>
-      </c>
-      <c r="B563">
-        <v>4.6400789769999999</v>
-      </c>
+    <row r="563" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E563">
         <v>5.6100702499999997</v>
       </c>
@@ -11483,13 +11405,7 @@
         <v>162.41137699999999</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A564">
-        <v>13.599339000000001</v>
-      </c>
-      <c r="B564">
-        <v>4.5219167889999996</v>
-      </c>
+    <row r="564" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E564">
         <v>5.6202085999999998</v>
       </c>
@@ -11497,13 +11413,7 @@
         <v>163.72243599999999</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A565">
-        <v>13.629458</v>
-      </c>
-      <c r="B565">
-        <v>4.4821858929999996</v>
-      </c>
+    <row r="565" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E565">
         <v>5.63013078</v>
       </c>
@@ -11511,13 +11421,7 @@
         <v>165.01798299999999</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A566">
-        <v>13.659575</v>
-      </c>
-      <c r="B566">
-        <v>4.4886929809999998</v>
-      </c>
+    <row r="566" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E566">
         <v>5.6400520900000002</v>
       </c>
@@ -11525,13 +11429,7 @@
         <v>166.275476</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A567">
-        <v>13.689693999999999</v>
-      </c>
-      <c r="B567">
-        <v>4.4850710869999997</v>
-      </c>
+    <row r="567" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E567">
         <v>5.65018799</v>
       </c>
@@ -11539,13 +11437,7 @@
         <v>167.45614599999999</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A568">
-        <v>13.719811</v>
-      </c>
-      <c r="B568">
-        <v>4.4714697829999999</v>
-      </c>
+    <row r="568" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E568">
         <v>5.6601073700000004</v>
       </c>
@@ -11553,13 +11445,7 @@
         <v>168.61995200000001</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A569">
-        <v>13.749930000000001</v>
-      </c>
-      <c r="B569">
-        <v>4.393726762</v>
-      </c>
+    <row r="569" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E569">
         <v>5.6700259500000003</v>
       </c>
@@ -11567,13 +11453,7 @@
         <v>169.76523399999999</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A570">
-        <v>13.780047</v>
-      </c>
-      <c r="B570">
-        <v>4.4563736829999998</v>
-      </c>
+    <row r="570" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E570">
         <v>5.68015881</v>
       </c>
@@ -11581,13 +11461,7 @@
         <v>170.905686</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A571">
-        <v>13.810166000000001</v>
-      </c>
-      <c r="B571">
-        <v>4.327985183</v>
-      </c>
+    <row r="571" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E571">
         <v>5.6900755299999997</v>
       </c>
@@ -11595,13 +11469,7 @@
         <v>172.04386700000001</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A572">
-        <v>13.840285</v>
-      </c>
-      <c r="B572">
-        <v>4.3322298769999996</v>
-      </c>
+    <row r="572" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E572">
         <v>5.7002064700000004</v>
       </c>
@@ -11609,13 +11477,7 @@
         <v>173.171887</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A573">
-        <v>13.870402</v>
-      </c>
-      <c r="B573">
-        <v>4.3673752730000004</v>
-      </c>
+    <row r="573" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E573">
         <v>5.7101210499999997</v>
       </c>
@@ -11623,13 +11485,7 @@
         <v>174.279031</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A574">
-        <v>13.900520999999999</v>
-      </c>
-      <c r="B574">
-        <v>4.2847707819999998</v>
-      </c>
+    <row r="574" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E574">
         <v>5.72003489</v>
       </c>
@@ -11637,13 +11493,7 @@
         <v>175.37199899999999</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A575">
-        <v>13.931565000000001</v>
-      </c>
-      <c r="B575">
-        <v>4.170472105</v>
-      </c>
+    <row r="575" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E575">
         <v>5.7301634200000002</v>
       </c>
@@ -11651,13 +11501,7 @@
         <v>176.47600499999999</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A576">
-        <v>13.962611000000001</v>
-      </c>
-      <c r="B576">
-        <v>4.0683555880000002</v>
-      </c>
+    <row r="576" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E576">
         <v>5.7400756800000003</v>
       </c>
@@ -11665,13 +11509,7 @@
         <v>177.591082</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A577">
-        <v>13.993655</v>
-      </c>
-      <c r="B577">
-        <v>3.9176119530000002</v>
-      </c>
+    <row r="577" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E577">
         <v>5.7502027900000003</v>
       </c>
@@ -11679,13 +11517,7 @@
         <v>178.69548900000001</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A578">
-        <v>14.024699</v>
-      </c>
-      <c r="B578">
-        <v>3.878825124</v>
-      </c>
+    <row r="578" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E578">
         <v>5.7601138599999997</v>
       </c>
@@ -11693,13 +11525,7 @@
         <v>179.80081200000001</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A579">
-        <v>14.055743</v>
-      </c>
-      <c r="B579">
-        <v>3.6982407240000001</v>
-      </c>
+    <row r="579" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E579">
         <v>5.7700243000000002</v>
       </c>
@@ -11707,13 +11533,7 @@
         <v>180.86201199999999</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A580">
-        <v>14.086789</v>
-      </c>
-      <c r="B580">
-        <v>3.9369331019999998</v>
-      </c>
+    <row r="580" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E580">
         <v>5.7801488399999998</v>
       </c>
@@ -11721,13 +11541,7 @@
         <v>181.88468700000001</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A581">
-        <v>14.117832999999999</v>
-      </c>
-      <c r="B581">
-        <v>3.6180050559999999</v>
-      </c>
+    <row r="581" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E581">
         <v>5.7900570599999996</v>
       </c>
@@ -11735,13 +11549,7 @@
         <v>182.87903499999999</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A582">
-        <v>14.148877000000001</v>
-      </c>
-      <c r="B582">
-        <v>3.669685834</v>
-      </c>
+    <row r="582" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E582">
         <v>5.8001795899999999</v>
       </c>
@@ -11749,13 +11557,7 @@
         <v>183.81158300000001</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A583">
-        <v>14.179921</v>
-      </c>
-      <c r="B583">
-        <v>3.608577602</v>
-      </c>
+    <row r="583" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E583">
         <v>5.8100864699999999</v>
       </c>
@@ -11763,13 +11565,7 @@
         <v>184.71397300000001</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A584">
-        <v>14.210967</v>
-      </c>
-      <c r="B584">
-        <v>3.641536286</v>
-      </c>
+    <row r="584" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E584">
         <v>5.8202068599999999</v>
       </c>
@@ -11777,13 +11573,7 @@
         <v>185.564131</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A585">
-        <v>14.242011</v>
-      </c>
-      <c r="B585">
-        <v>3.7021117619999999</v>
-      </c>
+    <row r="585" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E585">
         <v>5.8301113000000004</v>
       </c>
@@ -11791,13 +11581,7 @@
         <v>186.395869</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A586">
-        <v>14.273054999999999</v>
-      </c>
-      <c r="B586">
-        <v>3.6057004039999998</v>
-      </c>
+    <row r="586" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E586">
         <v>5.84001474</v>
       </c>
@@ -11805,13 +11589,7 @@
         <v>187.18851699999999</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A587">
-        <v>14.304100999999999</v>
-      </c>
-      <c r="B587">
-        <v>3.7123551899999998</v>
-      </c>
+    <row r="587" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E587">
         <v>5.8501325099999999</v>
       </c>
@@ -11819,13 +11597,7 @@
         <v>187.98209399999999</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A588">
-        <v>14.335145000000001</v>
-      </c>
-      <c r="B588">
-        <v>3.511902702</v>
-      </c>
+    <row r="588" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E588">
         <v>5.8600344399999997</v>
       </c>
@@ -11833,13 +11605,7 @@
         <v>188.743075</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A589">
-        <v>14.366189</v>
-      </c>
-      <c r="B589">
-        <v>3.5251973840000002</v>
-      </c>
+    <row r="589" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E589">
         <v>5.8701508899999997</v>
       </c>
@@ -11847,13 +11613,7 @@
         <v>189.481922</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A590">
-        <v>14.397233</v>
-      </c>
-      <c r="B590">
-        <v>3.4870775389999999</v>
-      </c>
+    <row r="590" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E590">
         <v>5.8800513199999997</v>
       </c>
@@ -11861,13 +11621,7 @@
         <v>190.234768</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A591">
-        <v>14.428279</v>
-      </c>
-      <c r="B591">
-        <v>3.506872456</v>
-      </c>
+    <row r="591" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E591">
         <v>5.8901657199999997</v>
       </c>
@@ -11875,13 +11629,7 @@
         <v>191.002454</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A592">
-        <v>14.459334</v>
-      </c>
-      <c r="B592">
-        <v>3.5867961149999998</v>
-      </c>
+    <row r="592" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E592">
         <v>5.9000641299999996</v>
       </c>
@@ -11889,13 +11637,7 @@
         <v>191.80255600000001</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A593">
-        <v>14.49039</v>
-      </c>
-      <c r="B593">
-        <v>3.521288014</v>
-      </c>
+    <row r="593" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E593">
         <v>5.9101762999999998</v>
       </c>
@@ -11903,13 +11645,7 @@
         <v>192.647131</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A594">
-        <v>14.521445</v>
-      </c>
-      <c r="B594">
-        <v>3.489365608</v>
-      </c>
+    <row r="594" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E594">
         <v>5.9200718500000002</v>
       </c>
@@ -11917,13 +11653,7 @@
         <v>193.53631200000001</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A595">
-        <v>14.552500999999999</v>
-      </c>
-      <c r="B595">
-        <v>3.4414782740000001</v>
-      </c>
+    <row r="595" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E595">
         <v>5.9301819199999999</v>
       </c>
@@ -11931,13 +11661,7 @@
         <v>194.46006</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A596">
-        <v>14.583556</v>
-      </c>
-      <c r="B596">
-        <v>3.5322096329999999</v>
-      </c>
+    <row r="596" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E596">
         <v>5.9400755800000002</v>
       </c>
@@ -11945,13 +11669,7 @@
         <v>195.40935300000001</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A597">
-        <v>14.614611999999999</v>
-      </c>
-      <c r="B597">
-        <v>3.4114747369999998</v>
-      </c>
+    <row r="597" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E597">
         <v>5.9501833800000004</v>
       </c>
@@ -11959,13 +11677,7 @@
         <v>196.38350199999999</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A598">
-        <v>14.645667</v>
-      </c>
-      <c r="B598">
-        <v>3.391352929</v>
-      </c>
+    <row r="598" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E598">
         <v>5.96007453</v>
       </c>
@@ -11973,13 +11685,7 @@
         <v>197.39108200000001</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A599">
-        <v>14.676723000000001</v>
-      </c>
-      <c r="B599">
-        <v>3.3996722880000001</v>
-      </c>
+    <row r="599" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E599">
         <v>5.97018</v>
       </c>
@@ -11987,13 +11693,7 @@
         <v>198.45369299999999</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A600">
-        <v>14.707777999999999</v>
-      </c>
-      <c r="B600">
-        <v>3.4789276490000001</v>
-      </c>
+    <row r="600" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E600">
         <v>5.9800695199999998</v>
       </c>
@@ -12001,13 +11701,7 @@
         <v>199.53719599999999</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A601">
-        <v>14.738833</v>
-      </c>
-      <c r="B601">
-        <v>3.3468566599999998</v>
-      </c>
+    <row r="601" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E601">
         <v>5.9901727400000002</v>
       </c>
@@ -12015,13 +11709,7 @@
         <v>200.651374</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A602">
-        <v>14.769888999999999</v>
-      </c>
-      <c r="B602">
-        <v>3.3602699029999998</v>
-      </c>
+    <row r="602" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E602">
         <v>6.0000602399999998</v>
       </c>
@@ -12029,13 +11717,7 @@
         <v>201.804191</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A603">
-        <v>14.800943999999999</v>
-      </c>
-      <c r="B603">
-        <v>3.44961853</v>
-      </c>
+    <row r="603" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E603">
         <v>6.01016175</v>
       </c>
@@ -12043,13 +11725,7 @@
         <v>202.948711</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A604">
-        <v>14.832000000000001</v>
-      </c>
-      <c r="B604">
-        <v>3.3875967490000001</v>
-      </c>
+    <row r="604" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E604">
         <v>6.0200476500000004</v>
       </c>
@@ -12057,13 +11733,7 @@
         <v>204.11024599999999</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A605">
-        <v>14.863054999999999</v>
-      </c>
-      <c r="B605">
-        <v>3.4254147029999999</v>
-      </c>
+    <row r="605" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E605">
         <v>6.03014779</v>
       </c>
@@ -12071,13 +11741,7 @@
         <v>205.24840900000001</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A606">
-        <v>14.894111000000001</v>
-      </c>
-      <c r="B606">
-        <v>3.35845642</v>
-      </c>
+    <row r="606" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E606">
         <v>6.0400328600000002</v>
       </c>
@@ -12085,13 +11749,7 @@
         <v>206.398099</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A607">
-        <v>14.925166000000001</v>
-      </c>
-      <c r="B607">
-        <v>3.2915857210000001</v>
-      </c>
+    <row r="607" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E607">
         <v>6.0501319599999999</v>
       </c>
@@ -12099,13 +11757,7 @@
         <v>207.52114</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A608">
-        <v>14.956868</v>
-      </c>
-      <c r="B608">
-        <v>3.2572029969999998</v>
-      </c>
+    <row r="608" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E608">
         <v>6.0600152300000003</v>
       </c>
@@ -12113,13 +11765,7 @@
         <v>208.63901899999999</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A609">
-        <v>14.988569999999999</v>
-      </c>
-      <c r="B609">
-        <v>3.4014142289999998</v>
-      </c>
+    <row r="609" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E609">
         <v>6.0701127899999996</v>
       </c>
@@ -12127,13 +11773,7 @@
         <v>209.71381</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A610">
-        <v>15.020272</v>
-      </c>
-      <c r="B610">
-        <v>3.3326099579999999</v>
-      </c>
+    <row r="610" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E610">
         <v>6.0802092600000002</v>
       </c>
@@ -12141,13 +11781,7 @@
         <v>210.714045</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A611">
-        <v>15.051976</v>
-      </c>
-      <c r="B611">
-        <v>3.3973092770000002</v>
-      </c>
+    <row r="611" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E611">
         <v>6.0900901799999998</v>
       </c>
@@ -12155,13 +11789,7 @@
         <v>211.65954099999999</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A612">
-        <v>15.083678000000001</v>
-      </c>
-      <c r="B612">
-        <v>3.2720945850000001</v>
-      </c>
+    <row r="612" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E612">
         <v>6.1001850400000004</v>
       </c>
@@ -12169,13 +11797,7 @@
         <v>212.52235400000001</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A613">
-        <v>15.11538</v>
-      </c>
-      <c r="B613">
-        <v>3.2816223980000001</v>
-      </c>
+    <row r="613" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E613">
         <v>6.1100634899999999</v>
       </c>
@@ -12183,13 +11805,7 @@
         <v>213.298981</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A614">
-        <v>15.147081999999999</v>
-      </c>
-      <c r="B614">
-        <v>3.2814797960000002</v>
-      </c>
+    <row r="614" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E614">
         <v>6.1201549000000002</v>
       </c>
@@ -12197,13 +11813,7 @@
         <v>213.99721700000001</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A615">
-        <v>15.178784</v>
-      </c>
-      <c r="B615">
-        <v>3.3130346589999999</v>
-      </c>
+    <row r="615" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E615">
         <v>6.13002775</v>
       </c>
@@ -12211,13 +11821,7 @@
         <v>214.62709599999999</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A616">
-        <v>15.210486</v>
-      </c>
-      <c r="B616">
-        <v>3.2409700030000002</v>
-      </c>
+    <row r="616" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E616">
         <v>6.1401112099999997</v>
       </c>
@@ -12225,13 +11829,7 @@
         <v>215.20486600000001</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A617">
-        <v>15.242190000000001</v>
-      </c>
-      <c r="B617">
-        <v>3.2909674409999998</v>
-      </c>
+    <row r="617" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E617">
         <v>6.1501906899999996</v>
       </c>
@@ -12239,13 +11837,7 @@
         <v>215.75166200000001</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A618">
-        <v>15.273892</v>
-      </c>
-      <c r="B618">
-        <v>3.298985058</v>
-      </c>
+    <row r="618" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E618">
         <v>6.1600516299999999</v>
       </c>
@@ -12253,13 +11845,7 @@
         <v>216.292688</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A619">
-        <v>15.305593999999999</v>
-      </c>
-      <c r="B619">
-        <v>3.372656208</v>
-      </c>
+    <row r="619" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E619">
         <v>6.17012363</v>
       </c>
@@ -12267,13 +11853,7 @@
         <v>216.85195400000001</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A620">
-        <v>15.337296</v>
-      </c>
-      <c r="B620">
-        <v>3.5104085170000001</v>
-      </c>
+    <row r="620" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E620">
         <v>6.1801915599999999</v>
       </c>
@@ -12281,13 +11861,7 @@
         <v>217.45049</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A621">
-        <v>15.368999000000001</v>
-      </c>
-      <c r="B621">
-        <v>3.4476331880000002</v>
-      </c>
+    <row r="621" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E621">
         <v>6.1900410900000002</v>
       </c>
@@ -12295,13 +11869,7 @@
         <v>218.104815</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A622">
-        <v>15.400701</v>
-      </c>
-      <c r="B622">
-        <v>3.5070051480000002</v>
-      </c>
+    <row r="622" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E622">
         <v>6.2001007100000001</v>
       </c>
@@ -12309,13 +11877,7 @@
         <v>218.81721200000001</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A623">
-        <v>15.432403000000001</v>
-      </c>
-      <c r="B623">
-        <v>3.3447184179999998</v>
-      </c>
+    <row r="623" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E623">
         <v>6.21015652</v>
       </c>
@@ -12323,13 +11885,7 @@
         <v>219.58241000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A624">
-        <v>15.464672999999999</v>
-      </c>
-      <c r="B624">
-        <v>3.410289884</v>
-      </c>
+    <row r="624" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E624">
         <v>6.2202090400000003</v>
       </c>
@@ -12337,13 +11893,7 @@
         <v>220.35377700000001</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A625">
-        <v>15.496945</v>
-      </c>
-      <c r="B625">
-        <v>3.4615292769999999</v>
-      </c>
+    <row r="625" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E625">
         <v>6.2300443999999997</v>
       </c>
@@ -12351,13 +11901,7 @@
         <v>221.141333</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A626">
-        <v>15.529216</v>
-      </c>
-      <c r="B626">
-        <v>3.2705679779999999</v>
-      </c>
+    <row r="626" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E626">
         <v>6.2400897500000001</v>
       </c>
@@ -12365,13 +11909,7 @@
         <v>221.91952900000001</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A627">
-        <v>15.561486</v>
-      </c>
-      <c r="B627">
-        <v>3.4847254400000001</v>
-      </c>
+    <row r="627" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E627">
         <v>6.2501312200000001</v>
       </c>
@@ -12379,13 +11917,7 @@
         <v>222.70568399999999</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A628">
-        <v>15.593757</v>
-      </c>
-      <c r="B628">
-        <v>3.4769717519999999</v>
-      </c>
+    <row r="628" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E628">
         <v>6.2601690200000002</v>
       </c>
@@ -12393,13 +11925,7 @@
         <v>223.52302900000001</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A629">
-        <v>15.626029000000001</v>
-      </c>
-      <c r="B629">
-        <v>3.3023886220000001</v>
-      </c>
+    <row r="629" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E629">
         <v>6.2702031299999996</v>
       </c>
@@ -12407,13 +11933,7 @@
         <v>224.36077800000001</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A630">
-        <v>15.658299</v>
-      </c>
-      <c r="B630">
-        <v>3.4571035139999999</v>
-      </c>
+    <row r="630" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E630">
         <v>6.2800201800000002</v>
       </c>
@@ -12421,13 +11941,7 @@
         <v>225.17599100000001</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A631">
-        <v>15.690569999999999</v>
-      </c>
-      <c r="B631">
-        <v>3.3993689030000001</v>
-      </c>
+    <row r="631" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E631">
         <v>6.2900469399999999</v>
       </c>
@@ -12435,13 +11949,7 @@
         <v>225.964203</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A632">
-        <v>15.72284</v>
-      </c>
-      <c r="B632">
-        <v>3.3208006299999999</v>
-      </c>
+    <row r="632" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E632">
         <v>6.3000699500000001</v>
       </c>
@@ -12449,13 +11957,7 @@
         <v>226.725031</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A633">
-        <v>15.755113</v>
-      </c>
-      <c r="B633">
-        <v>3.395612973</v>
-      </c>
+    <row r="633" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E633">
         <v>6.3100891800000003</v>
       </c>
@@ -12463,13 +11965,7 @@
         <v>227.45054200000001</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A634">
-        <v>15.787383</v>
-      </c>
-      <c r="B634">
-        <v>3.3634941340000002</v>
-      </c>
+    <row r="634" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E634">
         <v>6.3201046099999996</v>
       </c>
@@ -12477,13 +11973,7 @@
         <v>228.17008799999999</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A635">
-        <v>15.819654</v>
-      </c>
-      <c r="B635">
-        <v>3.2997677209999998</v>
-      </c>
+    <row r="635" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E635">
         <v>6.3301161800000001</v>
       </c>
@@ -12491,13 +11981,7 @@
         <v>228.87181699999999</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A636">
-        <v>15.851926000000001</v>
-      </c>
-      <c r="B636">
-        <v>3.419877246</v>
-      </c>
+    <row r="636" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E636">
         <v>6.3401239199999999</v>
       </c>
@@ -12505,13 +11989,7 @@
         <v>229.55434700000001</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A637">
-        <v>15.884195999999999</v>
-      </c>
-      <c r="B637">
-        <v>3.3963604900000002</v>
-      </c>
+    <row r="637" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E637">
         <v>6.3501279000000004</v>
       </c>
@@ -12519,13 +11997,7 @@
         <v>230.21796599999999</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A638">
-        <v>15.916467000000001</v>
-      </c>
-      <c r="B638">
-        <v>3.4195173240000001</v>
-      </c>
+    <row r="638" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E638">
         <v>6.3601280999999998</v>
       </c>
@@ -12533,13 +12005,7 @@
         <v>230.865983</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A639">
-        <v>15.948736999999999</v>
-      </c>
-      <c r="B639">
-        <v>3.5180146429999999</v>
-      </c>
+    <row r="639" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E639">
         <v>6.3701245499999999</v>
       </c>
@@ -12547,13 +12013,7 @@
         <v>231.49636699999999</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A640">
-        <v>15.981396999999999</v>
-      </c>
-      <c r="B640">
-        <v>3.5297881210000002</v>
-      </c>
+    <row r="640" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E640">
         <v>6.3801170699999998</v>
       </c>
@@ -12561,13 +12021,7 @@
         <v>232.10609500000001</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A641">
-        <v>16.014057000000001</v>
-      </c>
-      <c r="B641">
-        <v>3.4365134639999999</v>
-      </c>
+    <row r="641" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E641">
         <v>6.3901059299999998</v>
       </c>
@@ -12575,13 +12029,7 @@
         <v>232.699298</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A642">
-        <v>16.046719</v>
-      </c>
-      <c r="B642">
-        <v>3.3694721329999999</v>
-      </c>
+    <row r="642" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E642">
         <v>6.4000909300000002</v>
       </c>
@@ -12589,13 +12037,7 @@
         <v>233.28186600000001</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A643">
-        <v>16.079376</v>
-      </c>
-      <c r="B643">
-        <v>3.4530761230000002</v>
-      </c>
+    <row r="643" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E643">
         <v>6.4100721900000002</v>
       </c>
@@ -12603,13 +12045,7 @@
         <v>233.84769600000001</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A644">
-        <v>16.112037999999998</v>
-      </c>
-      <c r="B644">
-        <v>3.4747048280000001</v>
-      </c>
+    <row r="644" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E644">
         <v>6.4200496400000002</v>
       </c>
@@ -12617,13 +12053,7 @@
         <v>234.384783</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A645">
-        <v>16.144694999999999</v>
-      </c>
-      <c r="B645">
-        <v>3.461956008</v>
-      </c>
+    <row r="645" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E645">
         <v>6.4300233100000002</v>
       </c>
@@ -12631,13 +12061,7 @@
         <v>234.886405</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A646">
-        <v>16.177357000000001</v>
-      </c>
-      <c r="B646">
-        <v>3.3846943139999999</v>
-      </c>
+    <row r="646" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E646">
         <v>6.4402053199999996</v>
       </c>
@@ -12645,13 +12069,7 @@
         <v>235.35371000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A647">
-        <v>16.210018000000002</v>
-      </c>
-      <c r="B647">
-        <v>3.3976129570000002</v>
-      </c>
+    <row r="647" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E647">
         <v>6.45017145</v>
       </c>
@@ -12659,13 +12077,7 @@
         <v>235.78112999999999</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A648">
-        <v>16.242675999999999</v>
-      </c>
-      <c r="B648">
-        <v>3.4930344689999999</v>
-      </c>
+    <row r="648" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E648">
         <v>6.4601342500000003</v>
       </c>
@@ -12673,13 +12085,7 @@
         <v>236.165165</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A649">
-        <v>16.275337</v>
-      </c>
-      <c r="B649">
-        <v>3.5190026149999998</v>
-      </c>
+    <row r="649" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E649">
         <v>6.4700975200000004</v>
       </c>
@@ -12687,13 +12093,7 @@
         <v>236.50279399999999</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A650">
-        <v>16.307998999999999</v>
-      </c>
-      <c r="B650">
-        <v>3.5587437770000001</v>
-      </c>
+    <row r="650" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E650">
         <v>6.4800617899999997</v>
       </c>
@@ -12701,13 +12101,7 @@
         <v>236.786137</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A651">
-        <v>16.340655999999999</v>
-      </c>
-      <c r="B651">
-        <v>3.4014225140000001</v>
-      </c>
+    <row r="651" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E651">
         <v>6.4900271299999996</v>
       </c>
@@ -12715,13 +12109,7 @@
         <v>237.02462199999999</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A652">
-        <v>16.373318000000001</v>
-      </c>
-      <c r="B652">
-        <v>3.5121677060000001</v>
-      </c>
+    <row r="652" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E652">
         <v>6.5002053699999998</v>
       </c>
@@ -12729,13 +12117,7 @@
         <v>237.22166200000001</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A653">
-        <v>16.405975000000002</v>
-      </c>
-      <c r="B653">
-        <v>3.5267354759999998</v>
-      </c>
+    <row r="653" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E653">
         <v>6.5101726099999997</v>
       </c>
@@ -12743,7 +12125,7 @@
         <v>237.38219599999999</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E654">
         <v>6.5201407299999996</v>
       </c>
@@ -12751,7 +12133,7 @@
         <v>237.51169200000001</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E655">
         <v>6.5301097700000001</v>
       </c>
@@ -12759,7 +12141,7 @@
         <v>237.61612700000001</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E656">
         <v>6.5400796100000003</v>
       </c>
@@ -16344,7 +15726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79E3363-1F8D-48A1-B959-DFF407837AB4}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
